--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_DLKimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_DLKimLong.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="33" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="93">
   <si>
     <t>STT</t>
   </si>
@@ -298,6 +298,21 @@
   </si>
   <si>
     <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>ACT_01</t>
+  </si>
+  <si>
+    <t>0000000053</t>
+  </si>
+  <si>
+    <t>19/11/2020</t>
+  </si>
+  <si>
+    <t>Thiết bị báo sai nhiệt độ</t>
+  </si>
+  <si>
+    <t>Tùng</t>
   </si>
 </sst>
 </file>
@@ -747,57 +762,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -827,6 +791,57 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,7 +1149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1148,7 +1163,7 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="102" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="85" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
@@ -1205,7 +1220,7 @@
       <c r="F2" s="89"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="93"/>
+      <c r="I2" s="76"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="24"/>
@@ -1230,7 +1245,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="94"/>
+      <c r="I3" s="77"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -1250,50 +1265,50 @@
       <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="91" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="83" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1320,27 +1335,27 @@
       <c r="H5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="95" t="s">
+      <c r="I5" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1380,7 +1395,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="74"/>
-      <c r="V6" s="76" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1411,7 +1426,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="74"/>
-      <c r="V7" s="77"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1440,7 +1455,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="74"/>
-      <c r="V8" s="77"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1469,7 +1484,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
       <c r="U9" s="74"/>
-      <c r="V9" s="77"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1498,7 +1513,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
       <c r="U10" s="74"/>
-      <c r="V10" s="77"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1527,7 +1542,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
       <c r="U11" s="74"/>
-      <c r="V11" s="77"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1556,7 +1571,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
       <c r="U12" s="74"/>
-      <c r="V12" s="76" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1587,7 +1602,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
       <c r="U13" s="74"/>
-      <c r="V13" s="77"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1616,7 +1631,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
       <c r="U14" s="74"/>
-      <c r="V14" s="77"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1645,7 +1660,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="74"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="77"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1674,7 +1689,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="74"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="78"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1690,7 +1705,7 @@
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="96"/>
+      <c r="I17" s="79"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1717,7 +1732,7 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="97"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="1"/>
@@ -1744,7 +1759,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="96"/>
+      <c r="I19" s="79"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1775,7 +1790,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="96"/>
+      <c r="I20" s="79"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1807,7 +1822,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="96"/>
+      <c r="I21" s="79"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1839,7 +1854,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="98"/>
+      <c r="I22" s="81"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -1871,7 +1886,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="98"/>
+      <c r="I23" s="81"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -1898,7 +1913,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="98"/>
+      <c r="I24" s="81"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -1925,7 +1940,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="98"/>
+      <c r="I25" s="81"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -1956,7 +1971,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="98"/>
+      <c r="I26" s="81"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -1988,7 +2003,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="98"/>
+      <c r="I27" s="81"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -2020,7 +2035,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="96"/>
+      <c r="I28" s="79"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2052,7 +2067,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="96"/>
+      <c r="I29" s="79"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2084,7 +2099,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="96"/>
+      <c r="I30" s="79"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2116,7 +2131,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="96"/>
+      <c r="I31" s="79"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2148,7 +2163,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="96"/>
+      <c r="I32" s="79"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2180,7 +2195,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="96"/>
+      <c r="I33" s="79"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2212,7 +2227,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="96"/>
+      <c r="I34" s="79"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2244,7 +2259,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="96"/>
+      <c r="I35" s="79"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2276,7 +2291,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="96"/>
+      <c r="I36" s="79"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2308,7 +2323,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="96"/>
+      <c r="I37" s="79"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2340,7 +2355,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="96"/>
+      <c r="I38" s="79"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2367,7 +2382,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="96"/>
+      <c r="I39" s="79"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2394,7 +2409,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="96"/>
+      <c r="I40" s="79"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2426,7 +2441,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="96"/>
+      <c r="I41" s="79"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2458,7 +2473,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="96"/>
+      <c r="I42" s="79"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2485,7 +2500,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="96"/>
+      <c r="I43" s="79"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2512,7 +2527,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="96"/>
+      <c r="I44" s="79"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2543,7 +2558,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="96"/>
+      <c r="I45" s="79"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2575,7 +2590,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="96"/>
+      <c r="I46" s="79"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2607,7 +2622,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="96"/>
+      <c r="I47" s="79"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2639,7 +2654,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="96"/>
+      <c r="I48" s="79"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2671,7 +2686,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="96"/>
+      <c r="I49" s="79"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2703,7 +2718,7 @@
       <c r="F50" s="75"/>
       <c r="G50" s="75"/>
       <c r="H50" s="35"/>
-      <c r="I50" s="99"/>
+      <c r="I50" s="82"/>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
@@ -2735,7 +2750,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="96"/>
+      <c r="I51" s="79"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2767,7 +2782,7 @@
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
-      <c r="I52" s="100"/>
+      <c r="I52" s="83"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
       <c r="L52" s="37"/>
@@ -2799,7 +2814,7 @@
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
       <c r="H53" s="36"/>
-      <c r="I53" s="100"/>
+      <c r="I53" s="83"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
       <c r="L53" s="37"/>
@@ -2831,7 +2846,7 @@
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
       <c r="H54" s="42"/>
-      <c r="I54" s="101"/>
+      <c r="I54" s="84"/>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
       <c r="L54" s="43"/>
@@ -2863,7 +2878,7 @@
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
       <c r="H55" s="36"/>
-      <c r="I55" s="100"/>
+      <c r="I55" s="83"/>
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
       <c r="L55" s="37"/>
@@ -2895,7 +2910,7 @@
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
       <c r="H56" s="36"/>
-      <c r="I56" s="100"/>
+      <c r="I56" s="83"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
       <c r="L56" s="37"/>
@@ -2908,10 +2923,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="79" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="79">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2927,7 +2942,7 @@
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
       <c r="H57" s="36"/>
-      <c r="I57" s="100"/>
+      <c r="I57" s="83"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
       <c r="L57" s="37"/>
@@ -2940,8 +2955,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2954,7 +2969,7 @@
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
       <c r="H58" s="36"/>
-      <c r="I58" s="100"/>
+      <c r="I58" s="83"/>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
       <c r="L58" s="37"/>
@@ -2967,8 +2982,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="81"/>
-      <c r="W58" s="81"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -2981,7 +2996,7 @@
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
       <c r="H59" s="36"/>
-      <c r="I59" s="100"/>
+      <c r="I59" s="83"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
       <c r="L59" s="37"/>
@@ -3008,7 +3023,7 @@
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
-      <c r="I60" s="100"/>
+      <c r="I60" s="83"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
       <c r="L60" s="37"/>
@@ -3035,7 +3050,7 @@
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
       <c r="H61" s="36"/>
-      <c r="I61" s="100"/>
+      <c r="I61" s="83"/>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
       <c r="L61" s="37"/>
@@ -3067,7 +3082,7 @@
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
       <c r="H62" s="36"/>
-      <c r="I62" s="100"/>
+      <c r="I62" s="83"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
       <c r="L62" s="37"/>
@@ -3099,7 +3114,7 @@
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
       <c r="H63" s="36"/>
-      <c r="I63" s="100"/>
+      <c r="I63" s="83"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
       <c r="L63" s="37"/>
@@ -3126,7 +3141,7 @@
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
       <c r="H64" s="36"/>
-      <c r="I64" s="100"/>
+      <c r="I64" s="83"/>
       <c r="J64" s="36"/>
       <c r="K64" s="36"/>
       <c r="L64" s="37"/>
@@ -3153,7 +3168,7 @@
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
       <c r="H65" s="36"/>
-      <c r="I65" s="100"/>
+      <c r="I65" s="83"/>
       <c r="J65" s="36"/>
       <c r="K65" s="36"/>
       <c r="L65" s="37"/>
@@ -3180,7 +3195,7 @@
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
       <c r="H66" s="36"/>
-      <c r="I66" s="100"/>
+      <c r="I66" s="83"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
       <c r="L66" s="37"/>
@@ -3207,7 +3222,7 @@
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
       <c r="H67" s="36"/>
-      <c r="I67" s="100"/>
+      <c r="I67" s="83"/>
       <c r="J67" s="36"/>
       <c r="K67" s="36"/>
       <c r="L67" s="37"/>
@@ -3237,7 +3252,7 @@
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
       <c r="H68" s="36"/>
-      <c r="I68" s="100"/>
+      <c r="I68" s="83"/>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
       <c r="L68" s="37"/>
@@ -3264,7 +3279,7 @@
       <c r="F69" s="36"/>
       <c r="G69" s="36"/>
       <c r="H69" s="36"/>
-      <c r="I69" s="100"/>
+      <c r="I69" s="83"/>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
       <c r="L69" s="37"/>
@@ -3291,7 +3306,7 @@
       <c r="F70" s="36"/>
       <c r="G70" s="36"/>
       <c r="H70" s="36"/>
-      <c r="I70" s="100"/>
+      <c r="I70" s="83"/>
       <c r="J70" s="36"/>
       <c r="K70" s="36"/>
       <c r="L70" s="37"/>
@@ -3318,7 +3333,7 @@
       <c r="F71" s="36"/>
       <c r="G71" s="36"/>
       <c r="H71" s="36"/>
-      <c r="I71" s="100"/>
+      <c r="I71" s="83"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36"/>
       <c r="L71" s="37"/>
@@ -3345,7 +3360,7 @@
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
       <c r="H72" s="36"/>
-      <c r="I72" s="100"/>
+      <c r="I72" s="83"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
       <c r="L72" s="37"/>
@@ -3372,7 +3387,7 @@
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="36"/>
-      <c r="I73" s="100"/>
+      <c r="I73" s="83"/>
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
       <c r="L73" s="37"/>
@@ -3399,7 +3414,7 @@
       <c r="F74" s="36"/>
       <c r="G74" s="36"/>
       <c r="H74" s="36"/>
-      <c r="I74" s="100"/>
+      <c r="I74" s="83"/>
       <c r="J74" s="36"/>
       <c r="K74" s="36"/>
       <c r="L74" s="37"/>
@@ -3426,7 +3441,7 @@
       <c r="F75" s="36"/>
       <c r="G75" s="36"/>
       <c r="H75" s="36"/>
-      <c r="I75" s="100"/>
+      <c r="I75" s="83"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
       <c r="L75" s="37"/>
@@ -3453,7 +3468,7 @@
       <c r="F76" s="36"/>
       <c r="G76" s="36"/>
       <c r="H76" s="36"/>
-      <c r="I76" s="100"/>
+      <c r="I76" s="83"/>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
       <c r="L76" s="37"/>
@@ -3480,7 +3495,7 @@
       <c r="F77" s="36"/>
       <c r="G77" s="36"/>
       <c r="H77" s="36"/>
-      <c r="I77" s="100"/>
+      <c r="I77" s="83"/>
       <c r="J77" s="36"/>
       <c r="K77" s="36"/>
       <c r="L77" s="37"/>
@@ -3507,7 +3522,7 @@
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
       <c r="H78" s="36"/>
-      <c r="I78" s="100"/>
+      <c r="I78" s="83"/>
       <c r="J78" s="36"/>
       <c r="K78" s="36"/>
       <c r="L78" s="37"/>
@@ -3534,7 +3549,7 @@
       <c r="F79" s="36"/>
       <c r="G79" s="36"/>
       <c r="H79" s="36"/>
-      <c r="I79" s="100"/>
+      <c r="I79" s="83"/>
       <c r="J79" s="36"/>
       <c r="K79" s="36"/>
       <c r="L79" s="37"/>
@@ -3561,7 +3576,7 @@
       <c r="F80" s="36"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
-      <c r="I80" s="100"/>
+      <c r="I80" s="83"/>
       <c r="J80" s="36"/>
       <c r="K80" s="36"/>
       <c r="L80" s="37"/>
@@ -3588,7 +3603,7 @@
       <c r="F81" s="36"/>
       <c r="G81" s="36"/>
       <c r="H81" s="36"/>
-      <c r="I81" s="100"/>
+      <c r="I81" s="83"/>
       <c r="J81" s="36"/>
       <c r="K81" s="36"/>
       <c r="L81" s="37"/>
@@ -3615,7 +3630,7 @@
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
       <c r="H82" s="36"/>
-      <c r="I82" s="100"/>
+      <c r="I82" s="83"/>
       <c r="J82" s="36"/>
       <c r="K82" s="36"/>
       <c r="L82" s="37"/>
@@ -3642,7 +3657,7 @@
       <c r="F83" s="36"/>
       <c r="G83" s="36"/>
       <c r="H83" s="36"/>
-      <c r="I83" s="100"/>
+      <c r="I83" s="83"/>
       <c r="J83" s="36"/>
       <c r="K83" s="36"/>
       <c r="L83" s="37"/>
@@ -3669,7 +3684,7 @@
       <c r="F84" s="36"/>
       <c r="G84" s="36"/>
       <c r="H84" s="36"/>
-      <c r="I84" s="100"/>
+      <c r="I84" s="83"/>
       <c r="J84" s="36"/>
       <c r="K84" s="36"/>
       <c r="L84" s="37"/>
@@ -3696,7 +3711,7 @@
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
       <c r="H85" s="36"/>
-      <c r="I85" s="100"/>
+      <c r="I85" s="83"/>
       <c r="J85" s="36"/>
       <c r="K85" s="36"/>
       <c r="L85" s="37"/>
@@ -3723,7 +3738,7 @@
       <c r="F86" s="36"/>
       <c r="G86" s="36"/>
       <c r="H86" s="36"/>
-      <c r="I86" s="100"/>
+      <c r="I86" s="83"/>
       <c r="J86" s="36"/>
       <c r="K86" s="36"/>
       <c r="L86" s="37"/>
@@ -3750,7 +3765,7 @@
       <c r="F87" s="36"/>
       <c r="G87" s="36"/>
       <c r="H87" s="36"/>
-      <c r="I87" s="100"/>
+      <c r="I87" s="83"/>
       <c r="J87" s="36"/>
       <c r="K87" s="36"/>
       <c r="L87" s="37"/>
@@ -3777,7 +3792,7 @@
       <c r="F88" s="36"/>
       <c r="G88" s="36"/>
       <c r="H88" s="36"/>
-      <c r="I88" s="100"/>
+      <c r="I88" s="83"/>
       <c r="J88" s="36"/>
       <c r="K88" s="36"/>
       <c r="L88" s="37"/>
@@ -3804,7 +3819,7 @@
       <c r="F89" s="36"/>
       <c r="G89" s="36"/>
       <c r="H89" s="36"/>
-      <c r="I89" s="100"/>
+      <c r="I89" s="83"/>
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
       <c r="L89" s="37"/>
@@ -3831,7 +3846,7 @@
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
       <c r="H90" s="36"/>
-      <c r="I90" s="100"/>
+      <c r="I90" s="83"/>
       <c r="J90" s="36"/>
       <c r="K90" s="36"/>
       <c r="L90" s="37"/>
@@ -3858,7 +3873,7 @@
       <c r="F91" s="36"/>
       <c r="G91" s="36"/>
       <c r="H91" s="36"/>
-      <c r="I91" s="100"/>
+      <c r="I91" s="83"/>
       <c r="J91" s="36"/>
       <c r="K91" s="36"/>
       <c r="L91" s="37"/>
@@ -3885,7 +3900,7 @@
       <c r="F92" s="36"/>
       <c r="G92" s="36"/>
       <c r="H92" s="36"/>
-      <c r="I92" s="100"/>
+      <c r="I92" s="83"/>
       <c r="J92" s="36"/>
       <c r="K92" s="36"/>
       <c r="L92" s="37"/>
@@ -3912,7 +3927,7 @@
       <c r="F93" s="36"/>
       <c r="G93" s="36"/>
       <c r="H93" s="36"/>
-      <c r="I93" s="100"/>
+      <c r="I93" s="83"/>
       <c r="J93" s="36"/>
       <c r="K93" s="36"/>
       <c r="L93" s="37"/>
@@ -3939,7 +3954,7 @@
       <c r="F94" s="36"/>
       <c r="G94" s="36"/>
       <c r="H94" s="36"/>
-      <c r="I94" s="100"/>
+      <c r="I94" s="83"/>
       <c r="J94" s="36"/>
       <c r="K94" s="36"/>
       <c r="L94" s="37"/>
@@ -3966,7 +3981,7 @@
       <c r="F95" s="36"/>
       <c r="G95" s="36"/>
       <c r="H95" s="36"/>
-      <c r="I95" s="100"/>
+      <c r="I95" s="83"/>
       <c r="J95" s="36"/>
       <c r="K95" s="36"/>
       <c r="L95" s="37"/>
@@ -3993,7 +4008,7 @@
       <c r="F96" s="36"/>
       <c r="G96" s="36"/>
       <c r="H96" s="36"/>
-      <c r="I96" s="100"/>
+      <c r="I96" s="83"/>
       <c r="J96" s="36"/>
       <c r="K96" s="36"/>
       <c r="L96" s="37"/>
@@ -4020,7 +4035,7 @@
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
       <c r="H97" s="36"/>
-      <c r="I97" s="100"/>
+      <c r="I97" s="83"/>
       <c r="J97" s="36"/>
       <c r="K97" s="36"/>
       <c r="L97" s="37"/>
@@ -4047,7 +4062,7 @@
       <c r="F98" s="36"/>
       <c r="G98" s="36"/>
       <c r="H98" s="36"/>
-      <c r="I98" s="100"/>
+      <c r="I98" s="83"/>
       <c r="J98" s="36"/>
       <c r="K98" s="36"/>
       <c r="L98" s="37"/>
@@ -4074,7 +4089,7 @@
       <c r="F99" s="36"/>
       <c r="G99" s="36"/>
       <c r="H99" s="36"/>
-      <c r="I99" s="100"/>
+      <c r="I99" s="83"/>
       <c r="J99" s="36"/>
       <c r="K99" s="36"/>
       <c r="L99" s="37"/>
@@ -4101,7 +4116,7 @@
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
-      <c r="I100" s="100"/>
+      <c r="I100" s="83"/>
       <c r="J100" s="36"/>
       <c r="K100" s="36"/>
       <c r="L100" s="37"/>
@@ -4128,7 +4143,7 @@
       <c r="F101" s="36"/>
       <c r="G101" s="36"/>
       <c r="H101" s="36"/>
-      <c r="I101" s="100"/>
+      <c r="I101" s="83"/>
       <c r="J101" s="36"/>
       <c r="K101" s="36"/>
       <c r="L101" s="37"/>
@@ -4155,7 +4170,7 @@
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
       <c r="H102" s="36"/>
-      <c r="I102" s="100"/>
+      <c r="I102" s="83"/>
       <c r="J102" s="36"/>
       <c r="K102" s="36"/>
       <c r="L102" s="37"/>
@@ -4182,7 +4197,7 @@
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
       <c r="H103" s="36"/>
-      <c r="I103" s="100"/>
+      <c r="I103" s="83"/>
       <c r="J103" s="36"/>
       <c r="K103" s="36"/>
       <c r="L103" s="37"/>
@@ -4209,7 +4224,7 @@
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
       <c r="H104" s="36"/>
-      <c r="I104" s="100"/>
+      <c r="I104" s="83"/>
       <c r="J104" s="36"/>
       <c r="K104" s="36"/>
       <c r="L104" s="37"/>
@@ -4236,7 +4251,7 @@
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
       <c r="H105" s="36"/>
-      <c r="I105" s="100"/>
+      <c r="I105" s="83"/>
       <c r="J105" s="36"/>
       <c r="K105" s="36"/>
       <c r="L105" s="37"/>
@@ -4400,50 +4415,50 @@
       <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="91" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="83" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4473,24 +4488,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4524,7 +4539,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="74"/>
-      <c r="V6" s="76" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4555,7 +4570,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="74"/>
-      <c r="V7" s="77"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4584,7 +4599,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="74"/>
-      <c r="V8" s="77"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4613,7 +4628,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
       <c r="U9" s="74"/>
-      <c r="V9" s="77"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4642,7 +4657,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
       <c r="U10" s="74"/>
-      <c r="V10" s="77"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4671,7 +4686,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
       <c r="U11" s="74"/>
-      <c r="V11" s="77"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4700,7 +4715,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
       <c r="U12" s="74"/>
-      <c r="V12" s="76" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4731,7 +4746,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
       <c r="U13" s="74"/>
-      <c r="V13" s="77"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4760,7 +4775,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
       <c r="U14" s="74"/>
-      <c r="V14" s="77"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4789,7 +4804,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="74"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="77"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4818,7 +4833,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="74"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="78"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6052,10 +6067,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="79" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="79">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6084,8 +6099,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6111,8 +6126,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="81"/>
-      <c r="W58" s="81"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7544,50 +7559,50 @@
       <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="91" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="83" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7617,24 +7632,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7684,7 +7699,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="73"/>
-      <c r="V6" s="76" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7715,7 +7730,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="77"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7744,7 +7759,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="77"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7773,7 +7788,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="77"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7802,7 +7817,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="77"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7831,7 +7846,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="77"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7860,7 +7875,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="76" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -7891,7 +7906,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="77"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7920,7 +7935,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="77"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7949,7 +7964,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="77"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7978,7 +7993,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="78"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9212,10 +9227,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="79" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="79">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9244,8 +9259,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9271,8 +9286,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="81"/>
-      <c r="W58" s="81"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10589,8 +10604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10705,50 +10720,50 @@
       <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="91" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="83" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
@@ -10778,24 +10793,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -10843,7 +10858,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="71"/>
-      <c r="V6" s="76" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -10854,27 +10869,41 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="68" t="s">
+        <v>90</v>
+      </c>
       <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="72"/>
+      <c r="D7" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>89</v>
+      </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
       <c r="H7" s="51"/>
       <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="J7" s="53" t="s">
+        <v>91</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="M7" s="53" t="s">
+        <v>74</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
+      <c r="P7" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="R7" s="56"/>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="71"/>
-      <c r="V7" s="77"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10903,7 +10932,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="71"/>
-      <c r="V8" s="77"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10932,7 +10961,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
       <c r="U9" s="71"/>
-      <c r="V9" s="77"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -10961,7 +10990,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
       <c r="U10" s="71"/>
-      <c r="V10" s="77"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10990,7 +11019,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
       <c r="U11" s="71"/>
-      <c r="V11" s="77"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11019,7 +11048,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
       <c r="U12" s="71"/>
-      <c r="V12" s="76" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11050,7 +11079,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
       <c r="U13" s="71"/>
-      <c r="V13" s="77"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11079,7 +11108,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
       <c r="U14" s="71"/>
-      <c r="V14" s="77"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11108,7 +11137,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="71"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="77"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11137,7 +11166,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="71"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="78"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11288,7 +11317,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12371,12 +12400,12 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="79" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="79">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12403,8 +12432,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12430,8 +12459,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="81"/>
-      <c r="W58" s="81"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -13863,50 +13892,50 @@
       <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="91" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="83" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
@@ -13936,24 +13965,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -13979,7 +14008,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="76" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -14010,7 +14039,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="77"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14039,7 +14068,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="77"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14068,7 +14097,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="77"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -14097,7 +14126,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="77"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14126,7 +14155,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="77"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14155,7 +14184,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="76" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -14186,7 +14215,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="77"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14215,7 +14244,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="77"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14244,7 +14273,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="77"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14273,7 +14302,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="78"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -15507,10 +15536,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="79" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="79">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -15539,8 +15568,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -15566,8 +15595,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="81"/>
-      <c r="W58" s="81"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_DLKimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_DLKimLong.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="96">
   <si>
     <t>STT</t>
   </si>
@@ -313,6 +313,15 @@
   </si>
   <si>
     <t>Tùng</t>
+  </si>
+  <si>
+    <t>ĐM</t>
+  </si>
+  <si>
+    <t>IMEI mới: 0000000131</t>
+  </si>
+  <si>
+    <t>21/11/2020</t>
   </si>
 </sst>
 </file>
@@ -792,30 +801,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -837,10 +822,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1181,43 +1190,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="76"/>
@@ -1262,58 +1271,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="93"/>
+      <c r="M4" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="94" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="91" t="s">
+      <c r="W4" s="93" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1338,24 +1347,24 @@
       <c r="I5" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1395,7 +1404,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="74"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1426,7 +1435,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="74"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="87"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1455,7 +1464,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="74"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="87"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1484,7 +1493,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
       <c r="U9" s="74"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="87"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1513,7 +1522,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
       <c r="U10" s="74"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="87"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1542,7 +1551,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
       <c r="U11" s="74"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="87"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1571,7 +1580,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
       <c r="U12" s="74"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1602,7 +1611,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
       <c r="U13" s="74"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="87"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1631,7 +1640,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
       <c r="U14" s="74"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="87"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1660,7 +1669,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="74"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="87"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1689,7 +1698,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="74"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="88"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2923,10 +2932,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="89">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2955,8 +2964,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="90"/>
+      <c r="W57" s="90"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2982,8 +2991,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="91"/>
+      <c r="W58" s="91"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4269,6 +4278,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4279,16 +4298,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4331,43 +4340,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4412,58 +4421,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="93"/>
+      <c r="M4" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="94" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="91" t="s">
+      <c r="W4" s="93" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4488,24 +4497,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4539,7 +4548,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="74"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4570,7 +4579,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="74"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="87"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4599,7 +4608,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="74"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="87"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4628,7 +4637,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
       <c r="U9" s="74"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="87"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4657,7 +4666,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
       <c r="U10" s="74"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="87"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4686,7 +4695,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
       <c r="U11" s="74"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="87"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4715,7 +4724,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
       <c r="U12" s="74"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4746,7 +4755,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
       <c r="U13" s="74"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="87"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4775,7 +4784,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
       <c r="U14" s="74"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="87"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4804,7 +4813,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="74"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="87"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4833,7 +4842,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="74"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="88"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6067,10 +6076,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="89">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6099,8 +6108,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="90"/>
+      <c r="W57" s="90"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6126,8 +6135,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="91"/>
+      <c r="W58" s="91"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7413,6 +7422,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7423,16 +7442,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7475,43 +7484,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7556,58 +7565,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="93"/>
+      <c r="M4" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="94" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="91" t="s">
+      <c r="W4" s="93" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7632,24 +7641,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7699,7 +7708,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="73"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7730,7 +7739,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="87"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7759,7 +7768,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="87"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7788,7 +7797,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="87"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7817,7 +7826,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="87"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7846,7 +7855,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="87"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7875,7 +7884,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -7906,7 +7915,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="87"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7935,7 +7944,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="87"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7964,7 +7973,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="87"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7993,7 +8002,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="88"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9227,10 +9236,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="89">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9259,8 +9268,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="90"/>
+      <c r="W57" s="90"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9286,8 +9295,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="91"/>
+      <c r="W58" s="91"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10574,6 +10583,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10584,16 +10603,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10604,8 +10613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10636,43 +10645,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10717,58 +10726,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="93"/>
+      <c r="M4" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="94" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="91" t="s">
+      <c r="W4" s="93" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -10793,24 +10802,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -10858,7 +10867,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="71"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -10872,7 +10881,9 @@
       <c r="B7" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="50" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>88</v>
       </c>
@@ -10881,7 +10892,9 @@
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
+      <c r="H7" s="51" t="s">
+        <v>94</v>
+      </c>
       <c r="I7" s="53"/>
       <c r="J7" s="53" t="s">
         <v>91</v>
@@ -10892,7 +10905,9 @@
         <v>74</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
+      <c r="O7" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="P7" s="53" t="s">
         <v>92</v>
       </c>
@@ -10903,7 +10918,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="71"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="87"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10932,7 +10947,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="71"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="87"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10961,7 +10976,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
       <c r="U9" s="71"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="87"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -10990,7 +11005,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
       <c r="U10" s="71"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="87"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11019,7 +11034,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
       <c r="U11" s="71"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="87"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11048,7 +11063,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
       <c r="U12" s="71"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11079,7 +11094,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
       <c r="U13" s="71"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="87"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11108,7 +11123,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
       <c r="U14" s="71"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="87"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11137,7 +11152,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="71"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="87"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11166,7 +11181,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="71"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="88"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12400,10 +12415,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="89">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>2</v>
       </c>
@@ -12432,8 +12447,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="90"/>
+      <c r="W57" s="90"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12459,8 +12474,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="91"/>
+      <c r="W58" s="91"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -13746,6 +13761,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -13756,16 +13781,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13808,43 +13823,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -13889,58 +13904,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="93"/>
+      <c r="M4" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="94" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="91" t="s">
+      <c r="W4" s="93" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -13965,24 +13980,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -14008,7 +14023,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -14039,7 +14054,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="87"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14068,7 +14083,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="87"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14097,7 +14112,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="87"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -14126,7 +14141,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="87"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14155,7 +14170,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="87"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14184,7 +14199,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -14215,7 +14230,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="87"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14244,7 +14259,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="87"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14273,7 +14288,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="87"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14302,7 +14317,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="88"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -15536,10 +15551,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="89">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -15568,8 +15583,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="90"/>
+      <c r="W57" s="90"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -15595,8 +15610,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="91"/>
+      <c r="W58" s="91"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -16883,6 +16898,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -16893,16 +16918,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_DLKimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_DLKimLong.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="33" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="97">
   <si>
     <t>STT</t>
   </si>
@@ -298,6 +298,33 @@
   </si>
   <si>
     <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>Đổi mới</t>
+  </si>
+  <si>
+    <t>SE.4.00.---05.200416</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>ID thiết bị mới : 868183034676846</t>
+  </si>
+  <si>
+    <t>ĐM</t>
+  </si>
+  <si>
+    <t>11/11/2020</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng</t>
   </si>
 </sst>
 </file>
@@ -747,57 +774,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -827,6 +803,57 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,8 +1174,8 @@
     <col min="5" max="5" width="32.42578125" style="22" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="102" customWidth="1"/>
+    <col min="8" max="8" width="43.5703125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="85" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
@@ -1205,7 +1232,7 @@
       <c r="F2" s="89"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="93"/>
+      <c r="I2" s="76"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="24"/>
@@ -1230,7 +1257,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="94"/>
+      <c r="I3" s="77"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -1250,50 +1277,50 @@
       <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="91" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="83" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1320,27 +1347,27 @@
       <c r="H5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="95" t="s">
+      <c r="I5" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1349,7 +1376,9 @@
       <c r="B6" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68" t="s">
+        <v>94</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>44</v>
       </c>
@@ -1360,7 +1389,9 @@
       <c r="G6" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="51"/>
+      <c r="H6" s="51" t="s">
+        <v>92</v>
+      </c>
       <c r="I6" s="66" t="s">
         <v>87</v>
       </c>
@@ -1371,16 +1402,26 @@
         <v>85</v>
       </c>
       <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
+      <c r="M6" s="53" t="s">
+        <v>88</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="74"/>
-      <c r="V6" s="76" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1411,7 +1452,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="74"/>
-      <c r="V7" s="77"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1440,7 +1481,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="74"/>
-      <c r="V8" s="77"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1469,7 +1510,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
       <c r="U9" s="74"/>
-      <c r="V9" s="77"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1498,7 +1539,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
       <c r="U10" s="74"/>
-      <c r="V10" s="77"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1527,7 +1568,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
       <c r="U11" s="74"/>
-      <c r="V11" s="77"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1556,7 +1597,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
       <c r="U12" s="74"/>
-      <c r="V12" s="76" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1587,7 +1628,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
       <c r="U13" s="74"/>
-      <c r="V13" s="77"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1616,7 +1657,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
       <c r="U14" s="74"/>
-      <c r="V14" s="77"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1645,7 +1686,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="74"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="77"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1674,7 +1715,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="74"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="78"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1690,7 +1731,7 @@
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="96"/>
+      <c r="I17" s="79"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1717,7 +1758,7 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="97"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="1"/>
@@ -1744,7 +1785,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="96"/>
+      <c r="I19" s="79"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1775,7 +1816,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="96"/>
+      <c r="I20" s="79"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1807,7 +1848,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="96"/>
+      <c r="I21" s="79"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1825,7 +1866,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1839,7 +1880,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="98"/>
+      <c r="I22" s="81"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -1871,7 +1912,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="98"/>
+      <c r="I23" s="81"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -1898,7 +1939,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="98"/>
+      <c r="I24" s="81"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -1925,7 +1966,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="98"/>
+      <c r="I25" s="81"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -1956,7 +1997,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="98"/>
+      <c r="I26" s="81"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -1988,7 +2029,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="98"/>
+      <c r="I27" s="81"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -2006,7 +2047,7 @@
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2020,7 +2061,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="96"/>
+      <c r="I28" s="79"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2052,7 +2093,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="96"/>
+      <c r="I29" s="79"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2084,7 +2125,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="96"/>
+      <c r="I30" s="79"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2116,7 +2157,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="96"/>
+      <c r="I31" s="79"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2148,7 +2189,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="96"/>
+      <c r="I32" s="79"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2180,7 +2221,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="96"/>
+      <c r="I33" s="79"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2212,7 +2253,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="96"/>
+      <c r="I34" s="79"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2244,7 +2285,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="96"/>
+      <c r="I35" s="79"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2276,7 +2317,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="96"/>
+      <c r="I36" s="79"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2308,7 +2349,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="96"/>
+      <c r="I37" s="79"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2326,7 +2367,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2340,7 +2381,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="96"/>
+      <c r="I38" s="79"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2367,7 +2408,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="96"/>
+      <c r="I39" s="79"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2394,7 +2435,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="96"/>
+      <c r="I40" s="79"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2426,7 +2467,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="96"/>
+      <c r="I41" s="79"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2458,7 +2499,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="96"/>
+      <c r="I42" s="79"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2485,7 +2526,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="96"/>
+      <c r="I43" s="79"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2512,7 +2553,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="96"/>
+      <c r="I44" s="79"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2543,7 +2584,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="96"/>
+      <c r="I45" s="79"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2575,7 +2616,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="96"/>
+      <c r="I46" s="79"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2607,7 +2648,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="96"/>
+      <c r="I47" s="79"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2639,7 +2680,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="96"/>
+      <c r="I48" s="79"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2671,7 +2712,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="96"/>
+      <c r="I49" s="79"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2703,7 +2744,7 @@
       <c r="F50" s="75"/>
       <c r="G50" s="75"/>
       <c r="H50" s="35"/>
-      <c r="I50" s="99"/>
+      <c r="I50" s="82"/>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
@@ -2735,7 +2776,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="96"/>
+      <c r="I51" s="79"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2767,7 +2808,7 @@
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
-      <c r="I52" s="100"/>
+      <c r="I52" s="83"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
       <c r="L52" s="37"/>
@@ -2799,7 +2840,7 @@
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
       <c r="H53" s="36"/>
-      <c r="I53" s="100"/>
+      <c r="I53" s="83"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
       <c r="L53" s="37"/>
@@ -2831,7 +2872,7 @@
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
       <c r="H54" s="42"/>
-      <c r="I54" s="101"/>
+      <c r="I54" s="84"/>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
       <c r="L54" s="43"/>
@@ -2863,7 +2904,7 @@
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
       <c r="H55" s="36"/>
-      <c r="I55" s="100"/>
+      <c r="I55" s="83"/>
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
       <c r="L55" s="37"/>
@@ -2895,7 +2936,7 @@
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
       <c r="H56" s="36"/>
-      <c r="I56" s="100"/>
+      <c r="I56" s="83"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
       <c r="L56" s="37"/>
@@ -2908,10 +2949,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="79" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="79">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2927,7 +2968,7 @@
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
       <c r="H57" s="36"/>
-      <c r="I57" s="100"/>
+      <c r="I57" s="83"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
       <c r="L57" s="37"/>
@@ -2940,8 +2981,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2954,7 +2995,7 @@
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
       <c r="H58" s="36"/>
-      <c r="I58" s="100"/>
+      <c r="I58" s="83"/>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
       <c r="L58" s="37"/>
@@ -2967,8 +3008,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="81"/>
-      <c r="W58" s="81"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -2981,7 +3022,7 @@
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
       <c r="H59" s="36"/>
-      <c r="I59" s="100"/>
+      <c r="I59" s="83"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
       <c r="L59" s="37"/>
@@ -3008,7 +3049,7 @@
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
-      <c r="I60" s="100"/>
+      <c r="I60" s="83"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
       <c r="L60" s="37"/>
@@ -3035,7 +3076,7 @@
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
       <c r="H61" s="36"/>
-      <c r="I61" s="100"/>
+      <c r="I61" s="83"/>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
       <c r="L61" s="37"/>
@@ -3067,7 +3108,7 @@
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
       <c r="H62" s="36"/>
-      <c r="I62" s="100"/>
+      <c r="I62" s="83"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
       <c r="L62" s="37"/>
@@ -3099,7 +3140,7 @@
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
       <c r="H63" s="36"/>
-      <c r="I63" s="100"/>
+      <c r="I63" s="83"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
       <c r="L63" s="37"/>
@@ -3126,7 +3167,7 @@
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
       <c r="H64" s="36"/>
-      <c r="I64" s="100"/>
+      <c r="I64" s="83"/>
       <c r="J64" s="36"/>
       <c r="K64" s="36"/>
       <c r="L64" s="37"/>
@@ -3153,7 +3194,7 @@
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
       <c r="H65" s="36"/>
-      <c r="I65" s="100"/>
+      <c r="I65" s="83"/>
       <c r="J65" s="36"/>
       <c r="K65" s="36"/>
       <c r="L65" s="37"/>
@@ -3180,7 +3221,7 @@
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
       <c r="H66" s="36"/>
-      <c r="I66" s="100"/>
+      <c r="I66" s="83"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
       <c r="L66" s="37"/>
@@ -3207,7 +3248,7 @@
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
       <c r="H67" s="36"/>
-      <c r="I67" s="100"/>
+      <c r="I67" s="83"/>
       <c r="J67" s="36"/>
       <c r="K67" s="36"/>
       <c r="L67" s="37"/>
@@ -3237,7 +3278,7 @@
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
       <c r="H68" s="36"/>
-      <c r="I68" s="100"/>
+      <c r="I68" s="83"/>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
       <c r="L68" s="37"/>
@@ -3264,7 +3305,7 @@
       <c r="F69" s="36"/>
       <c r="G69" s="36"/>
       <c r="H69" s="36"/>
-      <c r="I69" s="100"/>
+      <c r="I69" s="83"/>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
       <c r="L69" s="37"/>
@@ -3291,7 +3332,7 @@
       <c r="F70" s="36"/>
       <c r="G70" s="36"/>
       <c r="H70" s="36"/>
-      <c r="I70" s="100"/>
+      <c r="I70" s="83"/>
       <c r="J70" s="36"/>
       <c r="K70" s="36"/>
       <c r="L70" s="37"/>
@@ -3318,7 +3359,7 @@
       <c r="F71" s="36"/>
       <c r="G71" s="36"/>
       <c r="H71" s="36"/>
-      <c r="I71" s="100"/>
+      <c r="I71" s="83"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36"/>
       <c r="L71" s="37"/>
@@ -3345,7 +3386,7 @@
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
       <c r="H72" s="36"/>
-      <c r="I72" s="100"/>
+      <c r="I72" s="83"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
       <c r="L72" s="37"/>
@@ -3372,7 +3413,7 @@
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="36"/>
-      <c r="I73" s="100"/>
+      <c r="I73" s="83"/>
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
       <c r="L73" s="37"/>
@@ -3399,7 +3440,7 @@
       <c r="F74" s="36"/>
       <c r="G74" s="36"/>
       <c r="H74" s="36"/>
-      <c r="I74" s="100"/>
+      <c r="I74" s="83"/>
       <c r="J74" s="36"/>
       <c r="K74" s="36"/>
       <c r="L74" s="37"/>
@@ -3426,7 +3467,7 @@
       <c r="F75" s="36"/>
       <c r="G75" s="36"/>
       <c r="H75" s="36"/>
-      <c r="I75" s="100"/>
+      <c r="I75" s="83"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
       <c r="L75" s="37"/>
@@ -3453,7 +3494,7 @@
       <c r="F76" s="36"/>
       <c r="G76" s="36"/>
       <c r="H76" s="36"/>
-      <c r="I76" s="100"/>
+      <c r="I76" s="83"/>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
       <c r="L76" s="37"/>
@@ -3480,7 +3521,7 @@
       <c r="F77" s="36"/>
       <c r="G77" s="36"/>
       <c r="H77" s="36"/>
-      <c r="I77" s="100"/>
+      <c r="I77" s="83"/>
       <c r="J77" s="36"/>
       <c r="K77" s="36"/>
       <c r="L77" s="37"/>
@@ -3507,7 +3548,7 @@
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
       <c r="H78" s="36"/>
-      <c r="I78" s="100"/>
+      <c r="I78" s="83"/>
       <c r="J78" s="36"/>
       <c r="K78" s="36"/>
       <c r="L78" s="37"/>
@@ -3534,7 +3575,7 @@
       <c r="F79" s="36"/>
       <c r="G79" s="36"/>
       <c r="H79" s="36"/>
-      <c r="I79" s="100"/>
+      <c r="I79" s="83"/>
       <c r="J79" s="36"/>
       <c r="K79" s="36"/>
       <c r="L79" s="37"/>
@@ -3561,7 +3602,7 @@
       <c r="F80" s="36"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
-      <c r="I80" s="100"/>
+      <c r="I80" s="83"/>
       <c r="J80" s="36"/>
       <c r="K80" s="36"/>
       <c r="L80" s="37"/>
@@ -3588,7 +3629,7 @@
       <c r="F81" s="36"/>
       <c r="G81" s="36"/>
       <c r="H81" s="36"/>
-      <c r="I81" s="100"/>
+      <c r="I81" s="83"/>
       <c r="J81" s="36"/>
       <c r="K81" s="36"/>
       <c r="L81" s="37"/>
@@ -3615,7 +3656,7 @@
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
       <c r="H82" s="36"/>
-      <c r="I82" s="100"/>
+      <c r="I82" s="83"/>
       <c r="J82" s="36"/>
       <c r="K82" s="36"/>
       <c r="L82" s="37"/>
@@ -3642,7 +3683,7 @@
       <c r="F83" s="36"/>
       <c r="G83" s="36"/>
       <c r="H83" s="36"/>
-      <c r="I83" s="100"/>
+      <c r="I83" s="83"/>
       <c r="J83" s="36"/>
       <c r="K83" s="36"/>
       <c r="L83" s="37"/>
@@ -3669,7 +3710,7 @@
       <c r="F84" s="36"/>
       <c r="G84" s="36"/>
       <c r="H84" s="36"/>
-      <c r="I84" s="100"/>
+      <c r="I84" s="83"/>
       <c r="J84" s="36"/>
       <c r="K84" s="36"/>
       <c r="L84" s="37"/>
@@ -3696,7 +3737,7 @@
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
       <c r="H85" s="36"/>
-      <c r="I85" s="100"/>
+      <c r="I85" s="83"/>
       <c r="J85" s="36"/>
       <c r="K85" s="36"/>
       <c r="L85" s="37"/>
@@ -3723,7 +3764,7 @@
       <c r="F86" s="36"/>
       <c r="G86" s="36"/>
       <c r="H86" s="36"/>
-      <c r="I86" s="100"/>
+      <c r="I86" s="83"/>
       <c r="J86" s="36"/>
       <c r="K86" s="36"/>
       <c r="L86" s="37"/>
@@ -3750,7 +3791,7 @@
       <c r="F87" s="36"/>
       <c r="G87" s="36"/>
       <c r="H87" s="36"/>
-      <c r="I87" s="100"/>
+      <c r="I87" s="83"/>
       <c r="J87" s="36"/>
       <c r="K87" s="36"/>
       <c r="L87" s="37"/>
@@ -3777,7 +3818,7 @@
       <c r="F88" s="36"/>
       <c r="G88" s="36"/>
       <c r="H88" s="36"/>
-      <c r="I88" s="100"/>
+      <c r="I88" s="83"/>
       <c r="J88" s="36"/>
       <c r="K88" s="36"/>
       <c r="L88" s="37"/>
@@ -3804,7 +3845,7 @@
       <c r="F89" s="36"/>
       <c r="G89" s="36"/>
       <c r="H89" s="36"/>
-      <c r="I89" s="100"/>
+      <c r="I89" s="83"/>
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
       <c r="L89" s="37"/>
@@ -3831,7 +3872,7 @@
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
       <c r="H90" s="36"/>
-      <c r="I90" s="100"/>
+      <c r="I90" s="83"/>
       <c r="J90" s="36"/>
       <c r="K90" s="36"/>
       <c r="L90" s="37"/>
@@ -3858,7 +3899,7 @@
       <c r="F91" s="36"/>
       <c r="G91" s="36"/>
       <c r="H91" s="36"/>
-      <c r="I91" s="100"/>
+      <c r="I91" s="83"/>
       <c r="J91" s="36"/>
       <c r="K91" s="36"/>
       <c r="L91" s="37"/>
@@ -3885,7 +3926,7 @@
       <c r="F92" s="36"/>
       <c r="G92" s="36"/>
       <c r="H92" s="36"/>
-      <c r="I92" s="100"/>
+      <c r="I92" s="83"/>
       <c r="J92" s="36"/>
       <c r="K92" s="36"/>
       <c r="L92" s="37"/>
@@ -3912,7 +3953,7 @@
       <c r="F93" s="36"/>
       <c r="G93" s="36"/>
       <c r="H93" s="36"/>
-      <c r="I93" s="100"/>
+      <c r="I93" s="83"/>
       <c r="J93" s="36"/>
       <c r="K93" s="36"/>
       <c r="L93" s="37"/>
@@ -3939,7 +3980,7 @@
       <c r="F94" s="36"/>
       <c r="G94" s="36"/>
       <c r="H94" s="36"/>
-      <c r="I94" s="100"/>
+      <c r="I94" s="83"/>
       <c r="J94" s="36"/>
       <c r="K94" s="36"/>
       <c r="L94" s="37"/>
@@ -3966,7 +4007,7 @@
       <c r="F95" s="36"/>
       <c r="G95" s="36"/>
       <c r="H95" s="36"/>
-      <c r="I95" s="100"/>
+      <c r="I95" s="83"/>
       <c r="J95" s="36"/>
       <c r="K95" s="36"/>
       <c r="L95" s="37"/>
@@ -3993,7 +4034,7 @@
       <c r="F96" s="36"/>
       <c r="G96" s="36"/>
       <c r="H96" s="36"/>
-      <c r="I96" s="100"/>
+      <c r="I96" s="83"/>
       <c r="J96" s="36"/>
       <c r="K96" s="36"/>
       <c r="L96" s="37"/>
@@ -4020,7 +4061,7 @@
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
       <c r="H97" s="36"/>
-      <c r="I97" s="100"/>
+      <c r="I97" s="83"/>
       <c r="J97" s="36"/>
       <c r="K97" s="36"/>
       <c r="L97" s="37"/>
@@ -4047,7 +4088,7 @@
       <c r="F98" s="36"/>
       <c r="G98" s="36"/>
       <c r="H98" s="36"/>
-      <c r="I98" s="100"/>
+      <c r="I98" s="83"/>
       <c r="J98" s="36"/>
       <c r="K98" s="36"/>
       <c r="L98" s="37"/>
@@ -4074,7 +4115,7 @@
       <c r="F99" s="36"/>
       <c r="G99" s="36"/>
       <c r="H99" s="36"/>
-      <c r="I99" s="100"/>
+      <c r="I99" s="83"/>
       <c r="J99" s="36"/>
       <c r="K99" s="36"/>
       <c r="L99" s="37"/>
@@ -4101,7 +4142,7 @@
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
-      <c r="I100" s="100"/>
+      <c r="I100" s="83"/>
       <c r="J100" s="36"/>
       <c r="K100" s="36"/>
       <c r="L100" s="37"/>
@@ -4128,7 +4169,7 @@
       <c r="F101" s="36"/>
       <c r="G101" s="36"/>
       <c r="H101" s="36"/>
-      <c r="I101" s="100"/>
+      <c r="I101" s="83"/>
       <c r="J101" s="36"/>
       <c r="K101" s="36"/>
       <c r="L101" s="37"/>
@@ -4155,7 +4196,7 @@
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
       <c r="H102" s="36"/>
-      <c r="I102" s="100"/>
+      <c r="I102" s="83"/>
       <c r="J102" s="36"/>
       <c r="K102" s="36"/>
       <c r="L102" s="37"/>
@@ -4182,7 +4223,7 @@
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
       <c r="H103" s="36"/>
-      <c r="I103" s="100"/>
+      <c r="I103" s="83"/>
       <c r="J103" s="36"/>
       <c r="K103" s="36"/>
       <c r="L103" s="37"/>
@@ -4209,7 +4250,7 @@
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
       <c r="H104" s="36"/>
-      <c r="I104" s="100"/>
+      <c r="I104" s="83"/>
       <c r="J104" s="36"/>
       <c r="K104" s="36"/>
       <c r="L104" s="37"/>
@@ -4236,7 +4277,7 @@
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
       <c r="H105" s="36"/>
-      <c r="I105" s="100"/>
+      <c r="I105" s="83"/>
       <c r="J105" s="36"/>
       <c r="K105" s="36"/>
       <c r="L105" s="37"/>
@@ -4284,8 +4325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4298,7 +4339,7 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="85" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
@@ -4355,7 +4396,7 @@
       <c r="F2" s="89"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="I2" s="76"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="24"/>
@@ -4380,7 +4421,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="I3" s="77"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -4400,50 +4441,50 @@
       <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="91" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="83" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4470,27 +4511,27 @@
       <c r="H5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4499,7 +4540,9 @@
       <c r="B6" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68" t="s">
+        <v>94</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>47</v>
       </c>
@@ -4511,20 +4554,36 @@
         <v>83</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
+      <c r="I6" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>89</v>
+      </c>
       <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
+      <c r="M6" s="53" t="s">
+        <v>96</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="74"/>
-      <c r="V6" s="76" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4542,7 +4601,7 @@
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
       <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
+      <c r="I7" s="66"/>
       <c r="J7" s="53"/>
       <c r="K7" s="1"/>
       <c r="L7" s="53"/>
@@ -4555,7 +4614,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="74"/>
-      <c r="V7" s="77"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4571,7 +4630,7 @@
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
       <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
+      <c r="I8" s="66"/>
       <c r="J8" s="53"/>
       <c r="K8" s="56"/>
       <c r="L8" s="53"/>
@@ -4584,7 +4643,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="74"/>
-      <c r="V8" s="77"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4600,7 +4659,7 @@
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
-      <c r="I9" s="53"/>
+      <c r="I9" s="66"/>
       <c r="J9" s="53"/>
       <c r="K9" s="1"/>
       <c r="L9" s="56"/>
@@ -4613,7 +4672,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
       <c r="U9" s="74"/>
-      <c r="V9" s="77"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4629,7 +4688,7 @@
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
-      <c r="I10" s="53"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="53"/>
       <c r="K10" s="56"/>
       <c r="L10" s="53"/>
@@ -4642,7 +4701,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
       <c r="U10" s="74"/>
-      <c r="V10" s="77"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4658,7 +4717,7 @@
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
-      <c r="I11" s="53"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="53"/>
       <c r="K11" s="56"/>
       <c r="L11" s="1"/>
@@ -4671,7 +4730,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
       <c r="U11" s="74"/>
-      <c r="V11" s="77"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4687,7 +4746,7 @@
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
       <c r="H12" s="51"/>
-      <c r="I12" s="53"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="53"/>
       <c r="K12" s="1"/>
       <c r="L12" s="56"/>
@@ -4700,7 +4759,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
       <c r="U12" s="74"/>
-      <c r="V12" s="76" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4718,7 +4777,7 @@
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
-      <c r="I13" s="53"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="53"/>
       <c r="K13" s="54"/>
       <c r="L13" s="1"/>
@@ -4731,7 +4790,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
       <c r="U13" s="74"/>
-      <c r="V13" s="77"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4747,7 +4806,7 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="67"/>
       <c r="J14" s="1"/>
       <c r="K14" s="53"/>
       <c r="L14" s="1"/>
@@ -4760,7 +4819,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
       <c r="U14" s="74"/>
-      <c r="V14" s="77"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4776,7 +4835,7 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="67"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -4789,7 +4848,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="74"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="77"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4805,7 +4864,7 @@
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="67"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -4818,7 +4877,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="74"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="78"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4834,7 +4893,7 @@
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="79"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -4861,7 +4920,7 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="15"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="1"/>
@@ -4888,7 +4947,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="79"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -4919,7 +4978,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="79"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -4951,7 +5010,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="79"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -4969,7 +5028,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4983,7 +5042,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="I22" s="81"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -5015,7 +5074,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="81"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -5042,7 +5101,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="I24" s="81"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -5069,7 +5128,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="I25" s="81"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -5100,7 +5159,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="81"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -5132,7 +5191,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="I27" s="81"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -5164,7 +5223,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="79"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -5196,7 +5255,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="79"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -5228,7 +5287,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="79"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -5246,7 +5305,7 @@
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5260,7 +5319,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="79"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -5292,7 +5351,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="79"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -5324,7 +5383,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="79"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -5356,7 +5415,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="79"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -5388,7 +5447,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="79"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -5420,7 +5479,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="79"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -5452,7 +5511,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="79"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -5470,7 +5529,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5484,7 +5543,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="79"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -5511,7 +5570,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="79"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -5538,7 +5597,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="79"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -5570,7 +5629,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="79"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -5602,7 +5661,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="79"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -5629,7 +5688,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="79"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -5656,7 +5715,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="79"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -5687,7 +5746,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="79"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -5719,7 +5778,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="79"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -5751,7 +5810,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="79"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -5783,7 +5842,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="79"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -5815,7 +5874,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="79"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -5847,7 +5906,7 @@
       <c r="F50" s="75"/>
       <c r="G50" s="75"/>
       <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
+      <c r="I50" s="82"/>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
@@ -5879,7 +5938,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="79"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -5911,7 +5970,7 @@
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
+      <c r="I52" s="83"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
       <c r="L52" s="37"/>
@@ -5943,7 +6002,7 @@
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
       <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
+      <c r="I53" s="83"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
       <c r="L53" s="37"/>
@@ -5975,7 +6034,7 @@
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
       <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
+      <c r="I54" s="84"/>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
       <c r="L54" s="43"/>
@@ -6007,7 +6066,7 @@
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
       <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
+      <c r="I55" s="83"/>
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
       <c r="L55" s="37"/>
@@ -6039,7 +6098,7 @@
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
       <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
+      <c r="I56" s="83"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
       <c r="L56" s="37"/>
@@ -6052,10 +6111,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="79" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="79">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6071,7 +6130,7 @@
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
       <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
+      <c r="I57" s="83"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
       <c r="L57" s="37"/>
@@ -6084,8 +6143,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6098,7 +6157,7 @@
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
       <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
+      <c r="I58" s="83"/>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
       <c r="L58" s="37"/>
@@ -6111,8 +6170,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="81"/>
-      <c r="W58" s="81"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -6125,7 +6184,7 @@
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
       <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
+      <c r="I59" s="83"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
       <c r="L59" s="37"/>
@@ -6152,7 +6211,7 @@
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
+      <c r="I60" s="83"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
       <c r="L60" s="37"/>
@@ -6179,7 +6238,7 @@
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
       <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
+      <c r="I61" s="83"/>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
       <c r="L61" s="37"/>
@@ -6211,7 +6270,7 @@
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
       <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
+      <c r="I62" s="83"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
       <c r="L62" s="37"/>
@@ -6243,7 +6302,7 @@
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
       <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
+      <c r="I63" s="83"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
       <c r="L63" s="37"/>
@@ -6270,7 +6329,7 @@
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
       <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
+      <c r="I64" s="83"/>
       <c r="J64" s="36"/>
       <c r="K64" s="36"/>
       <c r="L64" s="37"/>
@@ -6297,7 +6356,7 @@
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
       <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
+      <c r="I65" s="83"/>
       <c r="J65" s="36"/>
       <c r="K65" s="36"/>
       <c r="L65" s="37"/>
@@ -6324,7 +6383,7 @@
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
       <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
+      <c r="I66" s="83"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
       <c r="L66" s="37"/>
@@ -6351,7 +6410,7 @@
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
       <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
+      <c r="I67" s="83"/>
       <c r="J67" s="36"/>
       <c r="K67" s="36"/>
       <c r="L67" s="37"/>
@@ -6381,7 +6440,7 @@
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
       <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
+      <c r="I68" s="83"/>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
       <c r="L68" s="37"/>
@@ -6408,7 +6467,7 @@
       <c r="F69" s="36"/>
       <c r="G69" s="36"/>
       <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
+      <c r="I69" s="83"/>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
       <c r="L69" s="37"/>
@@ -6435,7 +6494,7 @@
       <c r="F70" s="36"/>
       <c r="G70" s="36"/>
       <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
+      <c r="I70" s="83"/>
       <c r="J70" s="36"/>
       <c r="K70" s="36"/>
       <c r="L70" s="37"/>
@@ -6462,7 +6521,7 @@
       <c r="F71" s="36"/>
       <c r="G71" s="36"/>
       <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
+      <c r="I71" s="83"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36"/>
       <c r="L71" s="37"/>
@@ -6489,7 +6548,7 @@
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
       <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
+      <c r="I72" s="83"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
       <c r="L72" s="37"/>
@@ -6516,7 +6575,7 @@
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
+      <c r="I73" s="83"/>
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
       <c r="L73" s="37"/>
@@ -6543,7 +6602,7 @@
       <c r="F74" s="36"/>
       <c r="G74" s="36"/>
       <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
+      <c r="I74" s="83"/>
       <c r="J74" s="36"/>
       <c r="K74" s="36"/>
       <c r="L74" s="37"/>
@@ -6570,7 +6629,7 @@
       <c r="F75" s="36"/>
       <c r="G75" s="36"/>
       <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
+      <c r="I75" s="83"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
       <c r="L75" s="37"/>
@@ -6597,7 +6656,7 @@
       <c r="F76" s="36"/>
       <c r="G76" s="36"/>
       <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
+      <c r="I76" s="83"/>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
       <c r="L76" s="37"/>
@@ -6624,7 +6683,7 @@
       <c r="F77" s="36"/>
       <c r="G77" s="36"/>
       <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
+      <c r="I77" s="83"/>
       <c r="J77" s="36"/>
       <c r="K77" s="36"/>
       <c r="L77" s="37"/>
@@ -6651,7 +6710,7 @@
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
       <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
+      <c r="I78" s="83"/>
       <c r="J78" s="36"/>
       <c r="K78" s="36"/>
       <c r="L78" s="37"/>
@@ -6678,7 +6737,7 @@
       <c r="F79" s="36"/>
       <c r="G79" s="36"/>
       <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
+      <c r="I79" s="83"/>
       <c r="J79" s="36"/>
       <c r="K79" s="36"/>
       <c r="L79" s="37"/>
@@ -6705,7 +6764,7 @@
       <c r="F80" s="36"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
+      <c r="I80" s="83"/>
       <c r="J80" s="36"/>
       <c r="K80" s="36"/>
       <c r="L80" s="37"/>
@@ -6732,7 +6791,7 @@
       <c r="F81" s="36"/>
       <c r="G81" s="36"/>
       <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
+      <c r="I81" s="83"/>
       <c r="J81" s="36"/>
       <c r="K81" s="36"/>
       <c r="L81" s="37"/>
@@ -6759,7 +6818,7 @@
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
       <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
+      <c r="I82" s="83"/>
       <c r="J82" s="36"/>
       <c r="K82" s="36"/>
       <c r="L82" s="37"/>
@@ -6786,7 +6845,7 @@
       <c r="F83" s="36"/>
       <c r="G83" s="36"/>
       <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
+      <c r="I83" s="83"/>
       <c r="J83" s="36"/>
       <c r="K83" s="36"/>
       <c r="L83" s="37"/>
@@ -6813,7 +6872,7 @@
       <c r="F84" s="36"/>
       <c r="G84" s="36"/>
       <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
+      <c r="I84" s="83"/>
       <c r="J84" s="36"/>
       <c r="K84" s="36"/>
       <c r="L84" s="37"/>
@@ -6840,7 +6899,7 @@
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
       <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
+      <c r="I85" s="83"/>
       <c r="J85" s="36"/>
       <c r="K85" s="36"/>
       <c r="L85" s="37"/>
@@ -6867,7 +6926,7 @@
       <c r="F86" s="36"/>
       <c r="G86" s="36"/>
       <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
+      <c r="I86" s="83"/>
       <c r="J86" s="36"/>
       <c r="K86" s="36"/>
       <c r="L86" s="37"/>
@@ -6894,7 +6953,7 @@
       <c r="F87" s="36"/>
       <c r="G87" s="36"/>
       <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
+      <c r="I87" s="83"/>
       <c r="J87" s="36"/>
       <c r="K87" s="36"/>
       <c r="L87" s="37"/>
@@ -6921,7 +6980,7 @@
       <c r="F88" s="36"/>
       <c r="G88" s="36"/>
       <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
+      <c r="I88" s="83"/>
       <c r="J88" s="36"/>
       <c r="K88" s="36"/>
       <c r="L88" s="37"/>
@@ -6948,7 +7007,7 @@
       <c r="F89" s="36"/>
       <c r="G89" s="36"/>
       <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
+      <c r="I89" s="83"/>
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
       <c r="L89" s="37"/>
@@ -6975,7 +7034,7 @@
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
       <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
+      <c r="I90" s="83"/>
       <c r="J90" s="36"/>
       <c r="K90" s="36"/>
       <c r="L90" s="37"/>
@@ -7002,7 +7061,7 @@
       <c r="F91" s="36"/>
       <c r="G91" s="36"/>
       <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
+      <c r="I91" s="83"/>
       <c r="J91" s="36"/>
       <c r="K91" s="36"/>
       <c r="L91" s="37"/>
@@ -7029,7 +7088,7 @@
       <c r="F92" s="36"/>
       <c r="G92" s="36"/>
       <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
+      <c r="I92" s="83"/>
       <c r="J92" s="36"/>
       <c r="K92" s="36"/>
       <c r="L92" s="37"/>
@@ -7056,7 +7115,7 @@
       <c r="F93" s="36"/>
       <c r="G93" s="36"/>
       <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
+      <c r="I93" s="83"/>
       <c r="J93" s="36"/>
       <c r="K93" s="36"/>
       <c r="L93" s="37"/>
@@ -7083,7 +7142,7 @@
       <c r="F94" s="36"/>
       <c r="G94" s="36"/>
       <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
+      <c r="I94" s="83"/>
       <c r="J94" s="36"/>
       <c r="K94" s="36"/>
       <c r="L94" s="37"/>
@@ -7110,7 +7169,7 @@
       <c r="F95" s="36"/>
       <c r="G95" s="36"/>
       <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
+      <c r="I95" s="83"/>
       <c r="J95" s="36"/>
       <c r="K95" s="36"/>
       <c r="L95" s="37"/>
@@ -7137,7 +7196,7 @@
       <c r="F96" s="36"/>
       <c r="G96" s="36"/>
       <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
+      <c r="I96" s="83"/>
       <c r="J96" s="36"/>
       <c r="K96" s="36"/>
       <c r="L96" s="37"/>
@@ -7164,7 +7223,7 @@
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
       <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
+      <c r="I97" s="83"/>
       <c r="J97" s="36"/>
       <c r="K97" s="36"/>
       <c r="L97" s="37"/>
@@ -7191,7 +7250,7 @@
       <c r="F98" s="36"/>
       <c r="G98" s="36"/>
       <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
+      <c r="I98" s="83"/>
       <c r="J98" s="36"/>
       <c r="K98" s="36"/>
       <c r="L98" s="37"/>
@@ -7218,7 +7277,7 @@
       <c r="F99" s="36"/>
       <c r="G99" s="36"/>
       <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
+      <c r="I99" s="83"/>
       <c r="J99" s="36"/>
       <c r="K99" s="36"/>
       <c r="L99" s="37"/>
@@ -7245,7 +7304,7 @@
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
+      <c r="I100" s="83"/>
       <c r="J100" s="36"/>
       <c r="K100" s="36"/>
       <c r="L100" s="37"/>
@@ -7272,7 +7331,7 @@
       <c r="F101" s="36"/>
       <c r="G101" s="36"/>
       <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
+      <c r="I101" s="83"/>
       <c r="J101" s="36"/>
       <c r="K101" s="36"/>
       <c r="L101" s="37"/>
@@ -7299,7 +7358,7 @@
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
       <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
+      <c r="I102" s="83"/>
       <c r="J102" s="36"/>
       <c r="K102" s="36"/>
       <c r="L102" s="37"/>
@@ -7326,7 +7385,7 @@
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
       <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
+      <c r="I103" s="83"/>
       <c r="J103" s="36"/>
       <c r="K103" s="36"/>
       <c r="L103" s="37"/>
@@ -7353,7 +7412,7 @@
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
       <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
+      <c r="I104" s="83"/>
       <c r="J104" s="36"/>
       <c r="K104" s="36"/>
       <c r="L104" s="37"/>
@@ -7380,7 +7439,7 @@
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
       <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
+      <c r="I105" s="83"/>
       <c r="J105" s="36"/>
       <c r="K105" s="36"/>
       <c r="L105" s="37"/>
@@ -7544,50 +7603,50 @@
       <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="91" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="83" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7617,24 +7676,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7684,7 +7743,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="73"/>
-      <c r="V6" s="76" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7715,7 +7774,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="77"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7744,7 +7803,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="77"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7773,7 +7832,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="77"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7802,7 +7861,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="77"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7831,7 +7890,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="77"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7860,7 +7919,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="76" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -7891,7 +7950,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="77"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7920,7 +7979,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="77"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7949,7 +8008,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="77"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7978,7 +8037,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="78"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9212,10 +9271,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="79" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="79">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9244,8 +9303,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9271,8 +9330,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="81"/>
-      <c r="W58" s="81"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10705,50 +10764,50 @@
       <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="91" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="83" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
@@ -10778,24 +10837,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -10843,7 +10902,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="71"/>
-      <c r="V6" s="76" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -10874,7 +10933,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="71"/>
-      <c r="V7" s="77"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10903,7 +10962,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="71"/>
-      <c r="V8" s="77"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10932,7 +10991,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
       <c r="U9" s="71"/>
-      <c r="V9" s="77"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -10961,7 +11020,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
       <c r="U10" s="71"/>
-      <c r="V10" s="77"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10990,7 +11049,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
       <c r="U11" s="71"/>
-      <c r="V11" s="77"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11019,7 +11078,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
       <c r="U12" s="71"/>
-      <c r="V12" s="76" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11050,7 +11109,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
       <c r="U13" s="71"/>
-      <c r="V13" s="77"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11079,7 +11138,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
       <c r="U14" s="71"/>
-      <c r="V14" s="77"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11108,7 +11167,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="71"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="77"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11137,7 +11196,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="71"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="78"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12371,10 +12430,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="79" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="79">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>1</v>
       </c>
@@ -12403,8 +12462,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12430,8 +12489,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="81"/>
-      <c r="W58" s="81"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -13863,50 +13922,50 @@
       <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="91" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="83" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
@@ -13936,24 +13995,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -13979,7 +14038,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="76" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -14010,7 +14069,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="77"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14039,7 +14098,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="77"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14068,7 +14127,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="77"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -14097,7 +14156,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="77"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14126,7 +14185,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="77"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14155,7 +14214,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="76" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -14186,7 +14245,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="77"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14215,7 +14274,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="77"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14244,7 +14303,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="77"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14273,7 +14332,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="78"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -15507,10 +15566,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="79" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="79">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -15539,8 +15598,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -15566,8 +15625,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="81"/>
-      <c r="W58" s="81"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_DLKimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_DLKimLong.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="33" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="97">
   <si>
     <t>STT</t>
   </si>
@@ -804,30 +804,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -849,10 +825,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1161,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,43 +1193,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="76"/>
@@ -1274,58 +1274,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="93"/>
+      <c r="M4" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="94" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="91" t="s">
+      <c r="W4" s="93" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1350,24 +1350,24 @@
       <c r="I5" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1421,7 +1421,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="74"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1452,7 +1452,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="74"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="87"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="74"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="87"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1510,7 +1510,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
       <c r="U9" s="74"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="87"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1539,7 +1539,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
       <c r="U10" s="74"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="87"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1568,7 +1568,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
       <c r="U11" s="74"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="87"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
       <c r="U12" s="74"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1628,7 +1628,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
       <c r="U13" s="74"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="87"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
       <c r="U14" s="74"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="87"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1686,7 +1686,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="74"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="87"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1715,7 +1715,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="74"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="88"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2949,10 +2949,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="89">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2981,8 +2981,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="90"/>
+      <c r="W57" s="90"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3008,8 +3008,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="91"/>
+      <c r="W58" s="91"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4295,6 +4295,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4305,16 +4315,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4325,8 +4325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4357,43 +4357,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="76"/>
@@ -4438,58 +4438,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="93"/>
+      <c r="M4" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="94" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="91" t="s">
+      <c r="W4" s="93" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4514,24 +4514,24 @@
       <c r="I5" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4583,7 +4583,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="74"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4614,7 +4614,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="74"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="87"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4643,7 +4643,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="74"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="87"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4672,7 +4672,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
       <c r="U9" s="74"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="87"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4701,7 +4701,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
       <c r="U10" s="74"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="87"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4730,7 +4730,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
       <c r="U11" s="74"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="87"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4759,7 +4759,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
       <c r="U12" s="74"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4790,7 +4790,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
       <c r="U13" s="74"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="87"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4819,7 +4819,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
       <c r="U14" s="74"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="87"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4848,7 +4848,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="74"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="87"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4877,7 +4877,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="74"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="88"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6111,10 +6111,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="89">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6143,8 +6143,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="90"/>
+      <c r="W57" s="90"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6170,8 +6170,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="91"/>
+      <c r="W58" s="91"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7457,6 +7457,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7467,16 +7477,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7487,8 +7487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7519,43 +7519,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7600,58 +7600,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="93"/>
+      <c r="M4" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="94" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="91" t="s">
+      <c r="W4" s="93" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7676,24 +7676,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7743,7 +7743,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="73"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7774,7 +7774,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="87"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7803,7 +7803,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="87"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7832,7 +7832,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="87"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7861,7 +7861,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="87"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7890,7 +7890,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="87"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7919,7 +7919,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -7950,7 +7950,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="87"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7979,7 +7979,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="87"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8008,7 +8008,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="87"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8037,7 +8037,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="88"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9271,10 +9271,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="89">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9303,8 +9303,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="90"/>
+      <c r="W57" s="90"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9330,8 +9330,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="91"/>
+      <c r="W58" s="91"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10618,6 +10618,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10628,16 +10638,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10648,8 +10648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10680,43 +10680,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10761,58 +10761,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="93"/>
+      <c r="M4" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="94" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="91" t="s">
+      <c r="W4" s="93" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -10837,24 +10837,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -10902,7 +10902,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="71"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -10933,7 +10933,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="71"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="87"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10962,7 +10962,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="71"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="87"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10991,7 +10991,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
       <c r="U9" s="71"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="87"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -11020,7 +11020,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
       <c r="U10" s="71"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="87"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11049,7 +11049,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
       <c r="U11" s="71"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="87"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11078,7 +11078,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
       <c r="U12" s="71"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11109,7 +11109,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
       <c r="U13" s="71"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="87"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11138,7 +11138,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
       <c r="U14" s="71"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="87"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11167,7 +11167,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="71"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="87"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11196,7 +11196,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="71"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="88"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12430,10 +12430,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="89">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>1</v>
       </c>
@@ -12462,8 +12462,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="90"/>
+      <c r="W57" s="90"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12489,8 +12489,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="91"/>
+      <c r="W58" s="91"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -13776,6 +13776,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -13786,16 +13796,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13806,8 +13806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="I16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13838,43 +13838,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -13919,58 +13919,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="93"/>
+      <c r="M4" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="94" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="91" t="s">
+      <c r="W4" s="93" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -13995,50 +13995,78 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="52">
+        <v>860157040195445</v>
+      </c>
       <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="G6" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="56"/>
+      <c r="M6" s="53" t="s">
+        <v>88</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -14049,27 +14077,53 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
+      <c r="B7" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="52">
+        <v>861694031759598</v>
+      </c>
       <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="G7" s="51" t="s">
+        <v>83</v>
+      </c>
       <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
+      <c r="I7" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="56"/>
+      <c r="M7" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" s="55"/>
+      <c r="O7" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="87"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14078,27 +14132,51 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="52">
+        <v>862549040721303</v>
+      </c>
       <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
+      <c r="G8" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="60"/>
+      <c r="J8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="53"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="55"/>
+      <c r="O8" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="87"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14107,27 +14185,49 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
+      <c r="B9" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>71</v>
+      </c>
       <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
+      <c r="G9" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="60"/>
+      <c r="J9" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="53"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="53" t="s">
+        <v>74</v>
+      </c>
       <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
+      <c r="O9" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="R9" s="51"/>
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="87"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -14156,7 +14256,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="87"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14185,7 +14285,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="87"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14214,7 +14314,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -14245,7 +14345,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="87"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14274,7 +14374,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="87"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14303,7 +14403,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="87"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14332,7 +14432,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="88"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14483,7 +14583,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14664,7 +14764,7 @@
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14760,7 +14860,7 @@
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14792,7 +14892,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14984,7 +15084,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15219,7 +15319,7 @@
       </c>
       <c r="W45" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102E")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15251,7 +15351,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15347,7 +15447,7 @@
       </c>
       <c r="W49" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15566,12 +15666,12 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="89">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15598,8 +15698,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="90"/>
+      <c r="W57" s="90"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -15625,8 +15725,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="91"/>
+      <c r="W58" s="91"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -16913,6 +17013,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -16923,16 +17033,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_DLKimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_DLKimLong.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="33" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="97">
   <si>
     <t>STT</t>
   </si>
@@ -300,28 +300,31 @@
     <t>125.212.203.114,16060</t>
   </si>
   <si>
-    <t>ACT_01</t>
+    <t>Đổi mới</t>
   </si>
   <si>
-    <t>0000000053</t>
+    <t>SE.4.00.---05.200416</t>
   </si>
   <si>
-    <t>19/11/2020</t>
+    <t>125.212.203.114,14747</t>
   </si>
   <si>
-    <t>Thiết bị báo sai nhiệt độ</t>
+    <t>Thể</t>
   </si>
   <si>
-    <t>Tùng</t>
+    <t>ID thiết bị mới : 868183034676846</t>
   </si>
   <si>
     <t>ĐM</t>
   </si>
   <si>
-    <t>IMEI mới: 0000000131</t>
+    <t>11/11/2020</t>
   </si>
   <si>
-    <t>21/11/2020</t>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng</t>
   </si>
 </sst>
 </file>
@@ -1158,8 +1161,3172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="17" style="22" customWidth="1"/>
+    <col min="8" max="8" width="43.5703125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="85" customWidth="1"/>
+    <col min="10" max="10" width="53" style="22" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
+    <col min="13" max="13" width="58" style="22" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="22" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="22" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="22" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="22" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="22" customWidth="1"/>
+    <col min="19" max="20" width="26.85546875" style="22" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="22"/>
+    <col min="22" max="22" width="30.5703125" style="22" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" style="22" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="99"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="29"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="29"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="93"/>
+      <c r="M4" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="93" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="100"/>
+      <c r="B5" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="93"/>
+      <c r="K5" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+    </row>
+    <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="52">
+        <v>860157040195445</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="56"/>
+      <c r="M6" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="55"/>
+      <c r="O6" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="68"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="88"/>
+      <c r="W16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="17"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="18"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W20" s="11">
+        <f>COUNTIF($Q$6:$Q$105,"PM")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W21" s="11">
+        <f>COUNTIF($Q$6:$Q$105,"PC")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W22" s="11">
+        <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="18"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="18"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="W25" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W26" s="11">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="74"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W27" s="11">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="74"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" s="11">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="74"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" s="11">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="74"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W30" s="11">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="74"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W31" s="11">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="74"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W32" s="11">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="74"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W33" s="11">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="74"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" s="11">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="74"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W35" s="11">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="74"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W36" s="11">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="W37" s="11">
+        <f>SUM(W26:W36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="74"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="18"/>
+    </row>
+    <row r="39" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="74"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="18"/>
+    </row>
+    <row r="40" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="74"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W40" s="11">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="74"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="W41" s="11">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="74"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="18"/>
+    </row>
+    <row r="43" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="74"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="18"/>
+    </row>
+    <row r="44" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="W44" s="58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W45" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102E")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W46" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W47" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG007X")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="48"/>
+      <c r="V48" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W48" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102V")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="48"/>
+      <c r="V49" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W49" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="32">
+        <v>45</v>
+      </c>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="75"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="48"/>
+      <c r="V50" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="W50" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG007S")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="46"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W51" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG007")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="48"/>
+      <c r="V52" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="W52" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="48"/>
+      <c r="V53" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="W53" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102A")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="32">
+        <v>49</v>
+      </c>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="48"/>
+      <c r="V54" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="W54" s="11">
+        <f>COUNTIF($D$6:$D$105,"NSHD")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="83"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="48"/>
+      <c r="V55" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="W55" s="11">
+        <f>COUNTIF($D$6:$D$105,"CBN")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>51</v>
+      </c>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="83"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="48"/>
+      <c r="V56" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="W56" s="89">
+        <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>52</v>
+      </c>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="46"/>
+      <c r="U57" s="48"/>
+      <c r="V57" s="90"/>
+      <c r="W57" s="90"/>
+    </row>
+    <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>53</v>
+      </c>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="83"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="46"/>
+      <c r="U58" s="48"/>
+      <c r="V58" s="91"/>
+      <c r="W58" s="91"/>
+    </row>
+    <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>54</v>
+      </c>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="36"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="48"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="39"/>
+    </row>
+    <row r="60" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>55</v>
+      </c>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="48"/>
+      <c r="V60" s="38"/>
+      <c r="W60" s="39"/>
+    </row>
+    <row r="61" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>56</v>
+      </c>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="48"/>
+      <c r="V61" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W61" s="11">
+        <f>COUNTIF($O$6:$O$105,"*DM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>57</v>
+      </c>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="83"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="48"/>
+      <c r="V62" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="W62" s="11">
+        <f>COUNTIF($O$6:$O$105,"*KS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>58</v>
+      </c>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="83"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="48"/>
+      <c r="V63" s="38"/>
+      <c r="W63" s="39"/>
+    </row>
+    <row r="64" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>59</v>
+      </c>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="83"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="48"/>
+      <c r="V64" s="38"/>
+      <c r="W64" s="39"/>
+    </row>
+    <row r="65" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>60</v>
+      </c>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="83"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="48"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="39"/>
+    </row>
+    <row r="66" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>61</v>
+      </c>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="83"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="48"/>
+      <c r="V66" s="38"/>
+      <c r="W66" s="39"/>
+    </row>
+    <row r="67" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>62</v>
+      </c>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="36"/>
+      <c r="S67" s="36"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="48"/>
+      <c r="V67" s="38">
+        <f>SUM(D6:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="W67" s="39"/>
+    </row>
+    <row r="68" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>63</v>
+      </c>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="83"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="48"/>
+      <c r="V68" s="38"/>
+      <c r="W68" s="39"/>
+    </row>
+    <row r="69" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>64</v>
+      </c>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="83"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="48"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="39"/>
+    </row>
+    <row r="70" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>65</v>
+      </c>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="83"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="36"/>
+      <c r="R70" s="36"/>
+      <c r="S70" s="36"/>
+      <c r="T70" s="46"/>
+      <c r="U70" s="48"/>
+      <c r="V70" s="38"/>
+      <c r="W70" s="39"/>
+    </row>
+    <row r="71" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>66</v>
+      </c>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="83"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="36"/>
+      <c r="R71" s="36"/>
+      <c r="S71" s="36"/>
+      <c r="T71" s="46"/>
+      <c r="U71" s="48"/>
+      <c r="V71" s="38"/>
+      <c r="W71" s="39"/>
+    </row>
+    <row r="72" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>67</v>
+      </c>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="83"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="46"/>
+      <c r="U72" s="48"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="39"/>
+    </row>
+    <row r="73" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>68</v>
+      </c>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="83"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="36"/>
+      <c r="S73" s="36"/>
+      <c r="T73" s="46"/>
+      <c r="U73" s="48"/>
+      <c r="V73" s="38"/>
+      <c r="W73" s="39"/>
+    </row>
+    <row r="74" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>69</v>
+      </c>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="83"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="36"/>
+      <c r="R74" s="36"/>
+      <c r="S74" s="36"/>
+      <c r="T74" s="46"/>
+      <c r="U74" s="48"/>
+      <c r="V74" s="38"/>
+      <c r="W74" s="39"/>
+    </row>
+    <row r="75" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>70</v>
+      </c>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="83"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="36"/>
+      <c r="Q75" s="36"/>
+      <c r="R75" s="36"/>
+      <c r="S75" s="36"/>
+      <c r="T75" s="46"/>
+      <c r="U75" s="48"/>
+      <c r="V75" s="38"/>
+      <c r="W75" s="39"/>
+    </row>
+    <row r="76" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>71</v>
+      </c>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="83"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="36"/>
+      <c r="R76" s="36"/>
+      <c r="S76" s="36"/>
+      <c r="T76" s="46"/>
+      <c r="U76" s="48"/>
+      <c r="V76" s="38"/>
+      <c r="W76" s="39"/>
+    </row>
+    <row r="77" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>72</v>
+      </c>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
+      <c r="R77" s="36"/>
+      <c r="S77" s="36"/>
+      <c r="T77" s="46"/>
+      <c r="U77" s="48"/>
+      <c r="V77" s="38"/>
+      <c r="W77" s="39"/>
+    </row>
+    <row r="78" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>73</v>
+      </c>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="83"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36"/>
+      <c r="P78" s="36"/>
+      <c r="Q78" s="36"/>
+      <c r="R78" s="36"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="46"/>
+      <c r="U78" s="48"/>
+      <c r="V78" s="38"/>
+      <c r="W78" s="39"/>
+    </row>
+    <row r="79" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>74</v>
+      </c>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="83"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="36"/>
+      <c r="R79" s="36"/>
+      <c r="S79" s="36"/>
+      <c r="T79" s="46"/>
+      <c r="U79" s="48"/>
+      <c r="V79" s="38"/>
+      <c r="W79" s="39"/>
+    </row>
+    <row r="80" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>75</v>
+      </c>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="83"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="36"/>
+      <c r="P80" s="36"/>
+      <c r="Q80" s="36"/>
+      <c r="R80" s="36"/>
+      <c r="S80" s="36"/>
+      <c r="T80" s="46"/>
+      <c r="U80" s="48"/>
+      <c r="V80" s="38"/>
+      <c r="W80" s="39"/>
+    </row>
+    <row r="81" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>76</v>
+      </c>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="83"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="36"/>
+      <c r="P81" s="36"/>
+      <c r="Q81" s="36"/>
+      <c r="R81" s="36"/>
+      <c r="S81" s="36"/>
+      <c r="T81" s="46"/>
+      <c r="U81" s="48"/>
+      <c r="V81" s="38"/>
+      <c r="W81" s="39"/>
+    </row>
+    <row r="82" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>77</v>
+      </c>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="83"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="36"/>
+      <c r="S82" s="36"/>
+      <c r="T82" s="46"/>
+      <c r="U82" s="48"/>
+      <c r="V82" s="38"/>
+      <c r="W82" s="39"/>
+    </row>
+    <row r="83" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>78</v>
+      </c>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="83"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="36"/>
+      <c r="Q83" s="36"/>
+      <c r="R83" s="36"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="46"/>
+      <c r="U83" s="48"/>
+      <c r="V83" s="38"/>
+      <c r="W83" s="39"/>
+    </row>
+    <row r="84" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>79</v>
+      </c>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="83"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="36"/>
+      <c r="S84" s="36"/>
+      <c r="T84" s="46"/>
+      <c r="U84" s="48"/>
+      <c r="V84" s="38"/>
+      <c r="W84" s="39"/>
+    </row>
+    <row r="85" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>80</v>
+      </c>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="83"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+      <c r="O85" s="36"/>
+      <c r="P85" s="36"/>
+      <c r="Q85" s="36"/>
+      <c r="R85" s="36"/>
+      <c r="S85" s="36"/>
+      <c r="T85" s="46"/>
+      <c r="U85" s="48"/>
+      <c r="V85" s="38"/>
+      <c r="W85" s="39"/>
+    </row>
+    <row r="86" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>81</v>
+      </c>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="83"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="36"/>
+      <c r="S86" s="36"/>
+      <c r="T86" s="46"/>
+      <c r="U86" s="48"/>
+      <c r="V86" s="38"/>
+      <c r="W86" s="39"/>
+    </row>
+    <row r="87" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>82</v>
+      </c>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="83"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="36"/>
+      <c r="R87" s="36"/>
+      <c r="S87" s="36"/>
+      <c r="T87" s="46"/>
+      <c r="U87" s="48"/>
+      <c r="V87" s="38"/>
+      <c r="W87" s="39"/>
+    </row>
+    <row r="88" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>83</v>
+      </c>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="83"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="36"/>
+      <c r="S88" s="36"/>
+      <c r="T88" s="46"/>
+      <c r="U88" s="48"/>
+      <c r="V88" s="38"/>
+      <c r="W88" s="39"/>
+    </row>
+    <row r="89" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>84</v>
+      </c>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="83"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="36"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="46"/>
+      <c r="U89" s="48"/>
+      <c r="V89" s="38"/>
+      <c r="W89" s="39"/>
+    </row>
+    <row r="90" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>85</v>
+      </c>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="83"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="36"/>
+      <c r="R90" s="36"/>
+      <c r="S90" s="36"/>
+      <c r="T90" s="46"/>
+      <c r="U90" s="48"/>
+      <c r="V90" s="38"/>
+      <c r="W90" s="39"/>
+    </row>
+    <row r="91" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>86</v>
+      </c>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="83"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="36"/>
+      <c r="Q91" s="36"/>
+      <c r="R91" s="36"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="46"/>
+      <c r="U91" s="48"/>
+      <c r="V91" s="38"/>
+      <c r="W91" s="39"/>
+    </row>
+    <row r="92" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>87</v>
+      </c>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="83"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36"/>
+      <c r="P92" s="36"/>
+      <c r="Q92" s="36"/>
+      <c r="R92" s="36"/>
+      <c r="S92" s="36"/>
+      <c r="T92" s="46"/>
+      <c r="U92" s="48"/>
+      <c r="V92" s="38"/>
+      <c r="W92" s="39"/>
+    </row>
+    <row r="93" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>88</v>
+      </c>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="83"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="37"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="36"/>
+      <c r="O93" s="36"/>
+      <c r="P93" s="36"/>
+      <c r="Q93" s="36"/>
+      <c r="R93" s="36"/>
+      <c r="S93" s="36"/>
+      <c r="T93" s="46"/>
+      <c r="U93" s="48"/>
+      <c r="V93" s="38"/>
+      <c r="W93" s="39"/>
+    </row>
+    <row r="94" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>89</v>
+      </c>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="83"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36"/>
+      <c r="P94" s="36"/>
+      <c r="Q94" s="36"/>
+      <c r="R94" s="36"/>
+      <c r="S94" s="36"/>
+      <c r="T94" s="46"/>
+      <c r="U94" s="48"/>
+      <c r="V94" s="38"/>
+      <c r="W94" s="39"/>
+    </row>
+    <row r="95" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>90</v>
+      </c>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="83"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36"/>
+      <c r="P95" s="36"/>
+      <c r="Q95" s="36"/>
+      <c r="R95" s="36"/>
+      <c r="S95" s="36"/>
+      <c r="T95" s="46"/>
+      <c r="U95" s="48"/>
+      <c r="V95" s="38"/>
+      <c r="W95" s="39"/>
+    </row>
+    <row r="96" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>91</v>
+      </c>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="83"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
+      <c r="O96" s="36"/>
+      <c r="P96" s="36"/>
+      <c r="Q96" s="36"/>
+      <c r="R96" s="36"/>
+      <c r="S96" s="36"/>
+      <c r="T96" s="46"/>
+      <c r="U96" s="48"/>
+      <c r="V96" s="38"/>
+      <c r="W96" s="39"/>
+    </row>
+    <row r="97" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>92</v>
+      </c>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="83"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
+      <c r="L97" s="37"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="36"/>
+      <c r="O97" s="36"/>
+      <c r="P97" s="36"/>
+      <c r="Q97" s="36"/>
+      <c r="R97" s="36"/>
+      <c r="S97" s="36"/>
+      <c r="T97" s="46"/>
+      <c r="U97" s="48"/>
+      <c r="V97" s="38"/>
+      <c r="W97" s="39"/>
+    </row>
+    <row r="98" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>93</v>
+      </c>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="83"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="36"/>
+      <c r="O98" s="36"/>
+      <c r="P98" s="36"/>
+      <c r="Q98" s="36"/>
+      <c r="R98" s="36"/>
+      <c r="S98" s="36"/>
+      <c r="T98" s="46"/>
+      <c r="U98" s="48"/>
+      <c r="V98" s="38"/>
+      <c r="W98" s="39"/>
+    </row>
+    <row r="99" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>94</v>
+      </c>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="83"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
+      <c r="L99" s="37"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="36"/>
+      <c r="O99" s="36"/>
+      <c r="P99" s="36"/>
+      <c r="Q99" s="36"/>
+      <c r="R99" s="36"/>
+      <c r="S99" s="36"/>
+      <c r="T99" s="46"/>
+      <c r="U99" s="48"/>
+      <c r="V99" s="38"/>
+      <c r="W99" s="39"/>
+    </row>
+    <row r="100" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>95</v>
+      </c>
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="83"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="36"/>
+      <c r="O100" s="36"/>
+      <c r="P100" s="36"/>
+      <c r="Q100" s="36"/>
+      <c r="R100" s="36"/>
+      <c r="S100" s="36"/>
+      <c r="T100" s="46"/>
+      <c r="U100" s="48"/>
+      <c r="V100" s="38"/>
+      <c r="W100" s="39"/>
+    </row>
+    <row r="101" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>96</v>
+      </c>
+      <c r="B101" s="36"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="83"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
+      <c r="L101" s="37"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="36"/>
+      <c r="O101" s="36"/>
+      <c r="P101" s="36"/>
+      <c r="Q101" s="36"/>
+      <c r="R101" s="36"/>
+      <c r="S101" s="36"/>
+      <c r="T101" s="46"/>
+      <c r="U101" s="48"/>
+      <c r="V101" s="38"/>
+      <c r="W101" s="39"/>
+    </row>
+    <row r="102" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>97</v>
+      </c>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="83"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="36"/>
+      <c r="N102" s="36"/>
+      <c r="O102" s="36"/>
+      <c r="P102" s="36"/>
+      <c r="Q102" s="36"/>
+      <c r="R102" s="36"/>
+      <c r="S102" s="36"/>
+      <c r="T102" s="46"/>
+      <c r="U102" s="48"/>
+      <c r="V102" s="38"/>
+      <c r="W102" s="39"/>
+    </row>
+    <row r="103" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>98</v>
+      </c>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="83"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="37"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="36"/>
+      <c r="S103" s="36"/>
+      <c r="T103" s="46"/>
+      <c r="U103" s="48"/>
+      <c r="V103" s="38"/>
+      <c r="W103" s="39"/>
+    </row>
+    <row r="104" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>99</v>
+      </c>
+      <c r="B104" s="36"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="83"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
+      <c r="L104" s="37"/>
+      <c r="M104" s="36"/>
+      <c r="N104" s="36"/>
+      <c r="O104" s="36"/>
+      <c r="P104" s="36"/>
+      <c r="Q104" s="36"/>
+      <c r="R104" s="36"/>
+      <c r="S104" s="36"/>
+      <c r="T104" s="46"/>
+      <c r="U104" s="48"/>
+      <c r="V104" s="38"/>
+      <c r="W104" s="39"/>
+    </row>
+    <row r="105" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>100</v>
+      </c>
+      <c r="B105" s="36"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="83"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
+      <c r="L105" s="37"/>
+      <c r="M105" s="36"/>
+      <c r="N105" s="36"/>
+      <c r="O105" s="36"/>
+      <c r="P105" s="36"/>
+      <c r="Q105" s="36"/>
+      <c r="R105" s="36"/>
+      <c r="S105" s="36"/>
+      <c r="T105" s="47"/>
+      <c r="U105" s="49"/>
+      <c r="V105" s="40"/>
+      <c r="W105" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W105"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,34 +4540,46 @@
       <c r="B6" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68" t="s">
+        <v>94</v>
+      </c>
       <c r="D6" s="51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" s="52">
-        <v>860157040195445</v>
+        <v>861694031759598</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="51" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="H6" s="51"/>
       <c r="I6" s="66" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="K6" s="53" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
+      <c r="M6" s="53" t="s">
+        <v>96</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="74"/>
@@ -1849,7 +5028,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2126,7 +5305,7 @@
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2350,7 +5529,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2617,7 +5796,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2713,7 +5892,7 @@
       </c>
       <c r="W49" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4261,3150 +7440,6 @@
       <c r="G105" s="36"/>
       <c r="H105" s="36"/>
       <c r="I105" s="83"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="36"/>
-      <c r="L105" s="37"/>
-      <c r="M105" s="36"/>
-      <c r="N105" s="36"/>
-      <c r="O105" s="36"/>
-      <c r="P105" s="36"/>
-      <c r="Q105" s="36"/>
-      <c r="R105" s="36"/>
-      <c r="S105" s="36"/>
-      <c r="T105" s="47"/>
-      <c r="U105" s="49"/>
-      <c r="V105" s="40"/>
-      <c r="W105" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W105"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
-    <col min="7" max="7" width="17" style="22" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="53" style="22" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
-    <col min="13" max="13" width="58" style="22" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="22" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="22" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="22" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="22" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="22" customWidth="1"/>
-    <col min="19" max="20" width="26.85546875" style="22" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="22"/>
-    <col min="22" max="22" width="30.5703125" style="22" customWidth="1"/>
-    <col min="23" max="23" width="21.42578125" style="22" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="29"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="29"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="S4" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="93" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
-      <c r="B5" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="93"/>
-      <c r="K5" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-    </row>
-    <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="52">
-        <v>861694031759598</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>9</v>
-      </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>11</v>
-      </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="88"/>
-      <c r="W16" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="17"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>13</v>
-      </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="18"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>14</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="W19" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>15</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="W20" s="11">
-        <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>16</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W21" s="11">
-        <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>17</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W22" s="11">
-        <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>18</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="74"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="18"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>19</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="74"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="18"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>20</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="74"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="W25" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>21</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="74"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="W26" s="11">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>22</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="74"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W27" s="11">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>23</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="74"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W28" s="11">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>24</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="74"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W29" s="11">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>25</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="74"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W30" s="11">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>26</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="74"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="W31" s="11">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>27</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="74"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="W32" s="11">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>28</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="74"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="W33" s="11">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>29</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="74"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="W34" s="11">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>30</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="74"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W35" s="11">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>31</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="74"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="W36" s="11">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>32</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="74"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="W37" s="11">
-        <f>SUM(W26:W36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>33</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="74"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="18"/>
-    </row>
-    <row r="39" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>34</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="74"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="18"/>
-    </row>
-    <row r="40" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>35</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="74"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="W40" s="11">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>36</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="74"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="W41" s="11">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>37</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="74"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="18"/>
-    </row>
-    <row r="43" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>38</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="74"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="18"/>
-    </row>
-    <row r="44" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>39</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="W44" s="58" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>40</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="46"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W45" s="11">
-        <f>COUNTIF($D$6:$D$105,"TG102E")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>41</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="46"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="W46" s="11">
-        <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>42</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="46"/>
-      <c r="U47" s="48"/>
-      <c r="V47" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W47" s="11">
-        <f>COUNTIF($D$6:$D$105,"TG007X")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>43</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="46"/>
-      <c r="U48" s="48"/>
-      <c r="V48" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W48" s="11">
-        <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>44</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="48"/>
-      <c r="V49" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="W49" s="11">
-        <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="32">
-        <v>45</v>
-      </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="75"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="46"/>
-      <c r="U50" s="48"/>
-      <c r="V50" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="W50" s="11">
-        <f>COUNTIF($D$6:$D$105,"TG007S")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>46</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="46"/>
-      <c r="U51" s="48"/>
-      <c r="V51" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="W51" s="11">
-        <f>COUNTIF($D$6:$D$105,"TG007")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>47</v>
-      </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="46"/>
-      <c r="U52" s="48"/>
-      <c r="V52" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="W52" s="11">
-        <f>COUNTIF($D$6:$D$105,"TG102")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>48</v>
-      </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="46"/>
-      <c r="U53" s="48"/>
-      <c r="V53" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="W53" s="11">
-        <f>COUNTIF($D$6:$D$105,"TG102A")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="32">
-        <v>49</v>
-      </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="44"/>
-      <c r="O54" s="44"/>
-      <c r="P54" s="42"/>
-      <c r="Q54" s="42"/>
-      <c r="R54" s="42"/>
-      <c r="S54" s="42"/>
-      <c r="T54" s="46"/>
-      <c r="U54" s="48"/>
-      <c r="V54" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="W54" s="11">
-        <f>COUNTIF($D$6:$D$105,"NSHD")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>50</v>
-      </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="46"/>
-      <c r="U55" s="48"/>
-      <c r="V55" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="W55" s="11">
-        <f>COUNTIF($D$6:$D$105,"CBN")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>51</v>
-      </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="36"/>
-      <c r="T56" s="46"/>
-      <c r="U56" s="48"/>
-      <c r="V56" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="W56" s="89">
-        <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>52</v>
-      </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="36"/>
-      <c r="Q57" s="36"/>
-      <c r="R57" s="36"/>
-      <c r="S57" s="36"/>
-      <c r="T57" s="46"/>
-      <c r="U57" s="48"/>
-      <c r="V57" s="90"/>
-      <c r="W57" s="90"/>
-    </row>
-    <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>53</v>
-      </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="36"/>
-      <c r="P58" s="36"/>
-      <c r="Q58" s="36"/>
-      <c r="R58" s="36"/>
-      <c r="S58" s="36"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="48"/>
-      <c r="V58" s="91"/>
-      <c r="W58" s="91"/>
-    </row>
-    <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>54</v>
-      </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="36"/>
-      <c r="O59" s="36"/>
-      <c r="P59" s="36"/>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="36"/>
-      <c r="S59" s="36"/>
-      <c r="T59" s="46"/>
-      <c r="U59" s="48"/>
-      <c r="V59" s="38"/>
-      <c r="W59" s="39"/>
-    </row>
-    <row r="60" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <v>55</v>
-      </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="46"/>
-      <c r="U60" s="48"/>
-      <c r="V60" s="38"/>
-      <c r="W60" s="39"/>
-    </row>
-    <row r="61" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <v>56</v>
-      </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="36"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="46"/>
-      <c r="U61" s="48"/>
-      <c r="V61" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="W61" s="11">
-        <f>COUNTIF($O$6:$O$105,"*DM*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>57</v>
-      </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="46"/>
-      <c r="U62" s="48"/>
-      <c r="V62" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="W62" s="11">
-        <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
-        <v>58</v>
-      </c>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="36"/>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="36"/>
-      <c r="R63" s="36"/>
-      <c r="S63" s="36"/>
-      <c r="T63" s="46"/>
-      <c r="U63" s="48"/>
-      <c r="V63" s="38"/>
-      <c r="W63" s="39"/>
-    </row>
-    <row r="64" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>59</v>
-      </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="36"/>
-      <c r="Q64" s="36"/>
-      <c r="R64" s="36"/>
-      <c r="S64" s="36"/>
-      <c r="T64" s="46"/>
-      <c r="U64" s="48"/>
-      <c r="V64" s="38"/>
-      <c r="W64" s="39"/>
-    </row>
-    <row r="65" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
-        <v>60</v>
-      </c>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="36"/>
-      <c r="P65" s="36"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="36"/>
-      <c r="S65" s="36"/>
-      <c r="T65" s="46"/>
-      <c r="U65" s="48"/>
-      <c r="V65" s="38"/>
-      <c r="W65" s="39"/>
-    </row>
-    <row r="66" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>61</v>
-      </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="36"/>
-      <c r="P66" s="36"/>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="36"/>
-      <c r="S66" s="36"/>
-      <c r="T66" s="46"/>
-      <c r="U66" s="48"/>
-      <c r="V66" s="38"/>
-      <c r="W66" s="39"/>
-    </row>
-    <row r="67" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <v>62</v>
-      </c>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36"/>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="36"/>
-      <c r="S67" s="36"/>
-      <c r="T67" s="46"/>
-      <c r="U67" s="48"/>
-      <c r="V67" s="38">
-        <f>SUM(D6:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="W67" s="39"/>
-    </row>
-    <row r="68" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
-        <v>63</v>
-      </c>
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="46"/>
-      <c r="U68" s="48"/>
-      <c r="V68" s="38"/>
-      <c r="W68" s="39"/>
-    </row>
-    <row r="69" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
-        <v>64</v>
-      </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="46"/>
-      <c r="U69" s="48"/>
-      <c r="V69" s="38"/>
-      <c r="W69" s="39"/>
-    </row>
-    <row r="70" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
-        <v>65</v>
-      </c>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="36"/>
-      <c r="N70" s="36"/>
-      <c r="O70" s="36"/>
-      <c r="P70" s="36"/>
-      <c r="Q70" s="36"/>
-      <c r="R70" s="36"/>
-      <c r="S70" s="36"/>
-      <c r="T70" s="46"/>
-      <c r="U70" s="48"/>
-      <c r="V70" s="38"/>
-      <c r="W70" s="39"/>
-    </row>
-    <row r="71" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
-        <v>66</v>
-      </c>
-      <c r="B71" s="36"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="36"/>
-      <c r="N71" s="36"/>
-      <c r="O71" s="36"/>
-      <c r="P71" s="36"/>
-      <c r="Q71" s="36"/>
-      <c r="R71" s="36"/>
-      <c r="S71" s="36"/>
-      <c r="T71" s="46"/>
-      <c r="U71" s="48"/>
-      <c r="V71" s="38"/>
-      <c r="W71" s="39"/>
-    </row>
-    <row r="72" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>67</v>
-      </c>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="36"/>
-      <c r="N72" s="36"/>
-      <c r="O72" s="36"/>
-      <c r="P72" s="36"/>
-      <c r="Q72" s="36"/>
-      <c r="R72" s="36"/>
-      <c r="S72" s="36"/>
-      <c r="T72" s="46"/>
-      <c r="U72" s="48"/>
-      <c r="V72" s="38"/>
-      <c r="W72" s="39"/>
-    </row>
-    <row r="73" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
-        <v>68</v>
-      </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="36"/>
-      <c r="N73" s="36"/>
-      <c r="O73" s="36"/>
-      <c r="P73" s="36"/>
-      <c r="Q73" s="36"/>
-      <c r="R73" s="36"/>
-      <c r="S73" s="36"/>
-      <c r="T73" s="46"/>
-      <c r="U73" s="48"/>
-      <c r="V73" s="38"/>
-      <c r="W73" s="39"/>
-    </row>
-    <row r="74" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
-        <v>69</v>
-      </c>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="36"/>
-      <c r="N74" s="36"/>
-      <c r="O74" s="36"/>
-      <c r="P74" s="36"/>
-      <c r="Q74" s="36"/>
-      <c r="R74" s="36"/>
-      <c r="S74" s="36"/>
-      <c r="T74" s="46"/>
-      <c r="U74" s="48"/>
-      <c r="V74" s="38"/>
-      <c r="W74" s="39"/>
-    </row>
-    <row r="75" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
-        <v>70</v>
-      </c>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="36"/>
-      <c r="N75" s="36"/>
-      <c r="O75" s="36"/>
-      <c r="P75" s="36"/>
-      <c r="Q75" s="36"/>
-      <c r="R75" s="36"/>
-      <c r="S75" s="36"/>
-      <c r="T75" s="46"/>
-      <c r="U75" s="48"/>
-      <c r="V75" s="38"/>
-      <c r="W75" s="39"/>
-    </row>
-    <row r="76" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
-        <v>71</v>
-      </c>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="36"/>
-      <c r="N76" s="36"/>
-      <c r="O76" s="36"/>
-      <c r="P76" s="36"/>
-      <c r="Q76" s="36"/>
-      <c r="R76" s="36"/>
-      <c r="S76" s="36"/>
-      <c r="T76" s="46"/>
-      <c r="U76" s="48"/>
-      <c r="V76" s="38"/>
-      <c r="W76" s="39"/>
-    </row>
-    <row r="77" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
-        <v>72</v>
-      </c>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="36"/>
-      <c r="N77" s="36"/>
-      <c r="O77" s="36"/>
-      <c r="P77" s="36"/>
-      <c r="Q77" s="36"/>
-      <c r="R77" s="36"/>
-      <c r="S77" s="36"/>
-      <c r="T77" s="46"/>
-      <c r="U77" s="48"/>
-      <c r="V77" s="38"/>
-      <c r="W77" s="39"/>
-    </row>
-    <row r="78" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
-        <v>73</v>
-      </c>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="36"/>
-      <c r="O78" s="36"/>
-      <c r="P78" s="36"/>
-      <c r="Q78" s="36"/>
-      <c r="R78" s="36"/>
-      <c r="S78" s="36"/>
-      <c r="T78" s="46"/>
-      <c r="U78" s="48"/>
-      <c r="V78" s="38"/>
-      <c r="W78" s="39"/>
-    </row>
-    <row r="79" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
-        <v>74</v>
-      </c>
-      <c r="B79" s="36"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="37"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
-      <c r="P79" s="36"/>
-      <c r="Q79" s="36"/>
-      <c r="R79" s="36"/>
-      <c r="S79" s="36"/>
-      <c r="T79" s="46"/>
-      <c r="U79" s="48"/>
-      <c r="V79" s="38"/>
-      <c r="W79" s="39"/>
-    </row>
-    <row r="80" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
-        <v>75</v>
-      </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="36"/>
-      <c r="N80" s="36"/>
-      <c r="O80" s="36"/>
-      <c r="P80" s="36"/>
-      <c r="Q80" s="36"/>
-      <c r="R80" s="36"/>
-      <c r="S80" s="36"/>
-      <c r="T80" s="46"/>
-      <c r="U80" s="48"/>
-      <c r="V80" s="38"/>
-      <c r="W80" s="39"/>
-    </row>
-    <row r="81" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
-        <v>76</v>
-      </c>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="36"/>
-      <c r="N81" s="36"/>
-      <c r="O81" s="36"/>
-      <c r="P81" s="36"/>
-      <c r="Q81" s="36"/>
-      <c r="R81" s="36"/>
-      <c r="S81" s="36"/>
-      <c r="T81" s="46"/>
-      <c r="U81" s="48"/>
-      <c r="V81" s="38"/>
-      <c r="W81" s="39"/>
-    </row>
-    <row r="82" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
-        <v>77</v>
-      </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
-      <c r="L82" s="37"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="36"/>
-      <c r="P82" s="36"/>
-      <c r="Q82" s="36"/>
-      <c r="R82" s="36"/>
-      <c r="S82" s="36"/>
-      <c r="T82" s="46"/>
-      <c r="U82" s="48"/>
-      <c r="V82" s="38"/>
-      <c r="W82" s="39"/>
-    </row>
-    <row r="83" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
-        <v>78</v>
-      </c>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="37"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="36"/>
-      <c r="P83" s="36"/>
-      <c r="Q83" s="36"/>
-      <c r="R83" s="36"/>
-      <c r="S83" s="36"/>
-      <c r="T83" s="46"/>
-      <c r="U83" s="48"/>
-      <c r="V83" s="38"/>
-      <c r="W83" s="39"/>
-    </row>
-    <row r="84" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
-        <v>79</v>
-      </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
-      <c r="L84" s="37"/>
-      <c r="M84" s="36"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="36"/>
-      <c r="P84" s="36"/>
-      <c r="Q84" s="36"/>
-      <c r="R84" s="36"/>
-      <c r="S84" s="36"/>
-      <c r="T84" s="46"/>
-      <c r="U84" s="48"/>
-      <c r="V84" s="38"/>
-      <c r="W84" s="39"/>
-    </row>
-    <row r="85" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
-        <v>80</v>
-      </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="37"/>
-      <c r="M85" s="36"/>
-      <c r="N85" s="36"/>
-      <c r="O85" s="36"/>
-      <c r="P85" s="36"/>
-      <c r="Q85" s="36"/>
-      <c r="R85" s="36"/>
-      <c r="S85" s="36"/>
-      <c r="T85" s="46"/>
-      <c r="U85" s="48"/>
-      <c r="V85" s="38"/>
-      <c r="W85" s="39"/>
-    </row>
-    <row r="86" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
-        <v>81</v>
-      </c>
-      <c r="B86" s="36"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="36"/>
-      <c r="O86" s="36"/>
-      <c r="P86" s="36"/>
-      <c r="Q86" s="36"/>
-      <c r="R86" s="36"/>
-      <c r="S86" s="36"/>
-      <c r="T86" s="46"/>
-      <c r="U86" s="48"/>
-      <c r="V86" s="38"/>
-      <c r="W86" s="39"/>
-    </row>
-    <row r="87" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
-        <v>82</v>
-      </c>
-      <c r="B87" s="36"/>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="37"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="36"/>
-      <c r="P87" s="36"/>
-      <c r="Q87" s="36"/>
-      <c r="R87" s="36"/>
-      <c r="S87" s="36"/>
-      <c r="T87" s="46"/>
-      <c r="U87" s="48"/>
-      <c r="V87" s="38"/>
-      <c r="W87" s="39"/>
-    </row>
-    <row r="88" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
-        <v>83</v>
-      </c>
-      <c r="B88" s="36"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="36"/>
-      <c r="N88" s="36"/>
-      <c r="O88" s="36"/>
-      <c r="P88" s="36"/>
-      <c r="Q88" s="36"/>
-      <c r="R88" s="36"/>
-      <c r="S88" s="36"/>
-      <c r="T88" s="46"/>
-      <c r="U88" s="48"/>
-      <c r="V88" s="38"/>
-      <c r="W88" s="39"/>
-    </row>
-    <row r="89" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
-        <v>84</v>
-      </c>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="36"/>
-      <c r="N89" s="36"/>
-      <c r="O89" s="36"/>
-      <c r="P89" s="36"/>
-      <c r="Q89" s="36"/>
-      <c r="R89" s="36"/>
-      <c r="S89" s="36"/>
-      <c r="T89" s="46"/>
-      <c r="U89" s="48"/>
-      <c r="V89" s="38"/>
-      <c r="W89" s="39"/>
-    </row>
-    <row r="90" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
-        <v>85</v>
-      </c>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="37"/>
-      <c r="M90" s="36"/>
-      <c r="N90" s="36"/>
-      <c r="O90" s="36"/>
-      <c r="P90" s="36"/>
-      <c r="Q90" s="36"/>
-      <c r="R90" s="36"/>
-      <c r="S90" s="36"/>
-      <c r="T90" s="46"/>
-      <c r="U90" s="48"/>
-      <c r="V90" s="38"/>
-      <c r="W90" s="39"/>
-    </row>
-    <row r="91" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
-        <v>86</v>
-      </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="36"/>
-      <c r="N91" s="36"/>
-      <c r="O91" s="36"/>
-      <c r="P91" s="36"/>
-      <c r="Q91" s="36"/>
-      <c r="R91" s="36"/>
-      <c r="S91" s="36"/>
-      <c r="T91" s="46"/>
-      <c r="U91" s="48"/>
-      <c r="V91" s="38"/>
-      <c r="W91" s="39"/>
-    </row>
-    <row r="92" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
-        <v>87</v>
-      </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="37"/>
-      <c r="M92" s="36"/>
-      <c r="N92" s="36"/>
-      <c r="O92" s="36"/>
-      <c r="P92" s="36"/>
-      <c r="Q92" s="36"/>
-      <c r="R92" s="36"/>
-      <c r="S92" s="36"/>
-      <c r="T92" s="46"/>
-      <c r="U92" s="48"/>
-      <c r="V92" s="38"/>
-      <c r="W92" s="39"/>
-    </row>
-    <row r="93" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
-        <v>88</v>
-      </c>
-      <c r="B93" s="36"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="37"/>
-      <c r="M93" s="36"/>
-      <c r="N93" s="36"/>
-      <c r="O93" s="36"/>
-      <c r="P93" s="36"/>
-      <c r="Q93" s="36"/>
-      <c r="R93" s="36"/>
-      <c r="S93" s="36"/>
-      <c r="T93" s="46"/>
-      <c r="U93" s="48"/>
-      <c r="V93" s="38"/>
-      <c r="W93" s="39"/>
-    </row>
-    <row r="94" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
-        <v>89</v>
-      </c>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="37"/>
-      <c r="M94" s="36"/>
-      <c r="N94" s="36"/>
-      <c r="O94" s="36"/>
-      <c r="P94" s="36"/>
-      <c r="Q94" s="36"/>
-      <c r="R94" s="36"/>
-      <c r="S94" s="36"/>
-      <c r="T94" s="46"/>
-      <c r="U94" s="48"/>
-      <c r="V94" s="38"/>
-      <c r="W94" s="39"/>
-    </row>
-    <row r="95" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
-        <v>90</v>
-      </c>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="37"/>
-      <c r="M95" s="36"/>
-      <c r="N95" s="36"/>
-      <c r="O95" s="36"/>
-      <c r="P95" s="36"/>
-      <c r="Q95" s="36"/>
-      <c r="R95" s="36"/>
-      <c r="S95" s="36"/>
-      <c r="T95" s="46"/>
-      <c r="U95" s="48"/>
-      <c r="V95" s="38"/>
-      <c r="W95" s="39"/>
-    </row>
-    <row r="96" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
-        <v>91</v>
-      </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="37"/>
-      <c r="M96" s="36"/>
-      <c r="N96" s="36"/>
-      <c r="O96" s="36"/>
-      <c r="P96" s="36"/>
-      <c r="Q96" s="36"/>
-      <c r="R96" s="36"/>
-      <c r="S96" s="36"/>
-      <c r="T96" s="46"/>
-      <c r="U96" s="48"/>
-      <c r="V96" s="38"/>
-      <c r="W96" s="39"/>
-    </row>
-    <row r="97" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
-        <v>92</v>
-      </c>
-      <c r="B97" s="36"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="36"/>
-      <c r="L97" s="37"/>
-      <c r="M97" s="36"/>
-      <c r="N97" s="36"/>
-      <c r="O97" s="36"/>
-      <c r="P97" s="36"/>
-      <c r="Q97" s="36"/>
-      <c r="R97" s="36"/>
-      <c r="S97" s="36"/>
-      <c r="T97" s="46"/>
-      <c r="U97" s="48"/>
-      <c r="V97" s="38"/>
-      <c r="W97" s="39"/>
-    </row>
-    <row r="98" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
-        <v>93</v>
-      </c>
-      <c r="B98" s="36"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="36"/>
-      <c r="K98" s="36"/>
-      <c r="L98" s="37"/>
-      <c r="M98" s="36"/>
-      <c r="N98" s="36"/>
-      <c r="O98" s="36"/>
-      <c r="P98" s="36"/>
-      <c r="Q98" s="36"/>
-      <c r="R98" s="36"/>
-      <c r="S98" s="36"/>
-      <c r="T98" s="46"/>
-      <c r="U98" s="48"/>
-      <c r="V98" s="38"/>
-      <c r="W98" s="39"/>
-    </row>
-    <row r="99" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
-        <v>94</v>
-      </c>
-      <c r="B99" s="36"/>
-      <c r="C99" s="36"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="36"/>
-      <c r="L99" s="37"/>
-      <c r="M99" s="36"/>
-      <c r="N99" s="36"/>
-      <c r="O99" s="36"/>
-      <c r="P99" s="36"/>
-      <c r="Q99" s="36"/>
-      <c r="R99" s="36"/>
-      <c r="S99" s="36"/>
-      <c r="T99" s="46"/>
-      <c r="U99" s="48"/>
-      <c r="V99" s="38"/>
-      <c r="W99" s="39"/>
-    </row>
-    <row r="100" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
-        <v>95</v>
-      </c>
-      <c r="B100" s="36"/>
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
-      <c r="L100" s="37"/>
-      <c r="M100" s="36"/>
-      <c r="N100" s="36"/>
-      <c r="O100" s="36"/>
-      <c r="P100" s="36"/>
-      <c r="Q100" s="36"/>
-      <c r="R100" s="36"/>
-      <c r="S100" s="36"/>
-      <c r="T100" s="46"/>
-      <c r="U100" s="48"/>
-      <c r="V100" s="38"/>
-      <c r="W100" s="39"/>
-    </row>
-    <row r="101" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
-        <v>96</v>
-      </c>
-      <c r="B101" s="36"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
-      <c r="L101" s="37"/>
-      <c r="M101" s="36"/>
-      <c r="N101" s="36"/>
-      <c r="O101" s="36"/>
-      <c r="P101" s="36"/>
-      <c r="Q101" s="36"/>
-      <c r="R101" s="36"/>
-      <c r="S101" s="36"/>
-      <c r="T101" s="46"/>
-      <c r="U101" s="48"/>
-      <c r="V101" s="38"/>
-      <c r="W101" s="39"/>
-    </row>
-    <row r="102" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
-        <v>97</v>
-      </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="36"/>
-      <c r="L102" s="37"/>
-      <c r="M102" s="36"/>
-      <c r="N102" s="36"/>
-      <c r="O102" s="36"/>
-      <c r="P102" s="36"/>
-      <c r="Q102" s="36"/>
-      <c r="R102" s="36"/>
-      <c r="S102" s="36"/>
-      <c r="T102" s="46"/>
-      <c r="U102" s="48"/>
-      <c r="V102" s="38"/>
-      <c r="W102" s="39"/>
-    </row>
-    <row r="103" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
-        <v>98</v>
-      </c>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
-      <c r="L103" s="37"/>
-      <c r="M103" s="36"/>
-      <c r="N103" s="36"/>
-      <c r="O103" s="36"/>
-      <c r="P103" s="36"/>
-      <c r="Q103" s="36"/>
-      <c r="R103" s="36"/>
-      <c r="S103" s="36"/>
-      <c r="T103" s="46"/>
-      <c r="U103" s="48"/>
-      <c r="V103" s="38"/>
-      <c r="W103" s="39"/>
-    </row>
-    <row r="104" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
-        <v>99</v>
-      </c>
-      <c r="B104" s="36"/>
-      <c r="C104" s="36"/>
-      <c r="D104" s="36"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="36"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="36"/>
-      <c r="L104" s="37"/>
-      <c r="M104" s="36"/>
-      <c r="N104" s="36"/>
-      <c r="O104" s="36"/>
-      <c r="P104" s="36"/>
-      <c r="Q104" s="36"/>
-      <c r="R104" s="36"/>
-      <c r="S104" s="36"/>
-      <c r="T104" s="46"/>
-      <c r="U104" s="48"/>
-      <c r="V104" s="38"/>
-      <c r="W104" s="39"/>
-    </row>
-    <row r="105" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
-        <v>100</v>
-      </c>
-      <c r="B105" s="36"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="36"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
       <c r="J105" s="36"/>
       <c r="K105" s="36"/>
       <c r="L105" s="37"/>
@@ -7452,8 +7487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10613,8 +10648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10878,42 +10913,22 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>89</v>
-      </c>
+      <c r="B7" s="68"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
-      <c r="H7" s="51" t="s">
-        <v>94</v>
-      </c>
+      <c r="H7" s="51"/>
       <c r="I7" s="53"/>
-      <c r="J7" s="53" t="s">
-        <v>91</v>
-      </c>
+      <c r="J7" s="53"/>
       <c r="K7" s="1"/>
       <c r="L7" s="53"/>
-      <c r="M7" s="53" t="s">
-        <v>74</v>
-      </c>
+      <c r="M7" s="53"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="P7" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="3"/>
       <c r="R7" s="56"/>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
@@ -11332,7 +11347,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12420,7 +12435,7 @@
       </c>
       <c r="W56" s="89">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13791,8 +13806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="I16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14003,23 +14018,51 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="52">
+        <v>860157040195445</v>
+      </c>
       <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="G6" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="56"/>
+      <c r="M6" s="53" t="s">
+        <v>88</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
@@ -14034,23 +14077,49 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
+      <c r="B7" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="52">
+        <v>861694031759598</v>
+      </c>
       <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="G7" s="51" t="s">
+        <v>83</v>
+      </c>
       <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
+      <c r="I7" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="56"/>
+      <c r="M7" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" s="55"/>
+      <c r="O7" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
@@ -14063,23 +14132,47 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="52">
+        <v>862549040721303</v>
+      </c>
       <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
+      <c r="G8" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="60"/>
+      <c r="J8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="53"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="55"/>
+      <c r="O8" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
@@ -14092,22 +14185,44 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
+      <c r="B9" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>71</v>
+      </c>
       <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
+      <c r="G9" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="60"/>
+      <c r="J9" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="53"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="53" t="s">
+        <v>74</v>
+      </c>
       <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
+      <c r="O9" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="R9" s="51"/>
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
@@ -14468,7 +14583,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14649,7 +14764,7 @@
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14745,7 +14860,7 @@
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14777,7 +14892,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14969,7 +15084,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15204,7 +15319,7 @@
       </c>
       <c r="W45" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102E")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15236,7 +15351,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15332,7 +15447,7 @@
       </c>
       <c r="W49" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15556,7 +15671,7 @@
       </c>
       <c r="W56" s="89">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
